--- a/Utilities_result.xlsx
+++ b/Utilities_result.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D526"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.006945287862168747</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C2">
-        <v>0.6815476190476191</v>
+        <v>-0.006709633330619802</v>
       </c>
       <c r="D2">
-        <v>0.0009477536986542223</v>
+        <v>-0.00468114759477392</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.006709633330619802</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C3">
-        <v>1.33311556329849</v>
+        <v>-0.01253276574147844</v>
       </c>
       <c r="D3">
-        <v>-0.002832092867655699</v>
+        <v>-0.008668003400817002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.01253276574147844</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C4">
-        <v>1.984683507549361</v>
+        <v>0.006015004627081488</v>
       </c>
       <c r="D4">
-        <v>0.007021697399108796</v>
+        <v>0.004160141635051565</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006015004627081488</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C5">
-        <v>2.636251451800232</v>
+        <v>-0.00714045876426006</v>
       </c>
       <c r="D5">
-        <v>0.0006656022304237751</v>
+        <v>-0.00493853648338427</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.00714045876426006</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C6">
-        <v>3.287819396051104</v>
+        <v>0.001091368069855214</v>
       </c>
       <c r="D6">
-        <v>-0.001009911911905612</v>
+        <v>0.0007548199923452914</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.001091368069855214</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C7">
-        <v>3.939387340301975</v>
+        <v>-0.001535076799424218</v>
       </c>
       <c r="D7">
-        <v>0.002818650097902665</v>
+        <v>-0.001061701079585865</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.001535076799424218</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C8">
-        <v>4.590955284552846</v>
+        <v>-0.003933713533442962</v>
       </c>
       <c r="D8">
-        <v>-0.0009896968326342883</v>
+        <v>-0.002720663817474429</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.003933713533442962</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C9">
-        <v>5.242523228803718</v>
+        <v>0.009992069084222344</v>
       </c>
       <c r="D9">
-        <v>-0.002852370764192682</v>
+        <v>0.006910788136459698</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.009992069084222344</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C10">
-        <v>5.894091173054589</v>
+        <v>-0.007288115902523096</v>
       </c>
       <c r="D10">
-        <v>-0.01110181698173545</v>
+        <v>-0.005040660196778431</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.007288115902523096</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C11">
-        <v>6.54565911730546</v>
+        <v>0.002628481262086702</v>
       </c>
       <c r="D11">
-        <v>-0.01163666752497247</v>
+        <v>0.001817929496866476</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.002628481262086702</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C12">
-        <v>7.197227061556331</v>
+        <v>-0.00379131185927406</v>
       </c>
       <c r="D12">
-        <v>-0.00143458761944377</v>
+        <v>-0.002622174926718822</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.00379131185927406</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C13">
-        <v>7.848795005807203</v>
+        <v>0.005494425562040384</v>
       </c>
       <c r="D13">
-        <v>0.005103994859094712</v>
+        <v>0.003800094922358592</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +556,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.005494425562040384</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C14">
-        <v>8.500362950058074</v>
+        <v>0.004990419943898594</v>
       </c>
       <c r="D14">
-        <v>-6.05463043066171e-05</v>
+        <v>0.003451510858617164</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +570,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.004990419943898594</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C15">
-        <v>9.151930894308945</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-0.0009368301984987113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +584,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C16">
-        <v>9.803498838559817</v>
+        <v>-0.01394713235763234</v>
       </c>
       <c r="D16">
-        <v>0.002800966546061892</v>
+        <v>-0.009646218017743039</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +598,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.01394713235763234</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C17">
-        <v>10.24555181869227</v>
+        <v>-0.002131317410438704</v>
       </c>
       <c r="D17">
-        <v>0.005910158220929445</v>
+        <v>-0.001380823634139852</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.002131317410438704</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C18">
-        <v>10.68760479882472</v>
+        <v>0.0001720489311400897</v>
       </c>
       <c r="D18">
-        <v>0.00690916263048033</v>
+        <v>0.0001114659079793446</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +626,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.0001720489311400897</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C19">
-        <v>11.12965777895717</v>
+        <v>-0.001136070351985374</v>
       </c>
       <c r="D19">
-        <v>0.00726839319426007</v>
+        <v>-0.0007360296426913182</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +640,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.001136070351985374</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C20">
-        <v>11.57171075908962</v>
+        <v>0.003713258521387708</v>
       </c>
       <c r="D20">
-        <v>0.01209685562142174</v>
+        <v>0.002405721034741581</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +654,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.003713258521387708</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C21">
-        <v>12.01376373922207</v>
+        <v>0.00544177121927536</v>
       </c>
       <c r="D21">
-        <v>0.01694526300702227</v>
+        <v>0.003525578252378076</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +668,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.00544177121927536</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C22">
-        <v>12.45581671935452</v>
+        <v>0.004325398838762595</v>
       </c>
       <c r="D22">
-        <v>0.0157073634522229</v>
+        <v>0.002802310399376447</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +682,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.004325398838762595</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C23">
-        <v>12.89786969948697</v>
+        <v>0.001596006926555482</v>
       </c>
       <c r="D23">
-        <v>0.00523236166406473</v>
+        <v>0.001034010266910498</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +696,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.001596006926555482</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C24">
-        <v>13.33992267961942</v>
+        <v>-0.006365220531150406</v>
       </c>
       <c r="D24">
-        <v>-0.002778320019617971</v>
+        <v>-0.004123856401152162</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +710,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.006365220531150406</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C25">
-        <v>13.78197565975187</v>
+        <v>0.01659367569961745</v>
       </c>
       <c r="D25">
-        <v>-0.003589422158453796</v>
+        <v>0.01075059935749672</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +724,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01659367569961745</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C26">
-        <v>14.22402863988432</v>
+        <v>-0.01070359517401176</v>
       </c>
       <c r="D26">
-        <v>-0.0009573807564146816</v>
+        <v>-0.006934573477489901</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +738,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.01070359517401176</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C27">
-        <v>14.66608162001677</v>
+        <v>-0.002821547603028662</v>
       </c>
       <c r="D27">
-        <v>0.005669751946943833</v>
+        <v>-0.001828005343563853</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +752,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.002821547603028662</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C28">
-        <v>15.10813460014922</v>
+        <v>0.006447256808470136</v>
       </c>
       <c r="D28">
-        <v>0.005929955570242148</v>
+        <v>0.004177005514477623</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +766,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.006447256808470136</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C29">
-        <v>15.55018758028167</v>
+        <v>-0.00641321483471291</v>
       </c>
       <c r="D29">
-        <v>0.01957246068851136</v>
+        <v>-0.004154950628759277</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +780,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.00641321483471291</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C30">
-        <v>15.99224056041412</v>
+        <v>-0.003136722653684032</v>
       </c>
       <c r="D30">
-        <v>0.02216930939013991</v>
+        <v>-0.002032198842244361</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +794,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.003136722653684032</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C31">
-        <v>16.43429354054657</v>
+        <v>-0.01389197775977102</v>
       </c>
       <c r="D31">
-        <v>0.01757316971133941</v>
+        <v>-0.009000241410165451</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +808,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.01389197775977102</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C32">
-        <v>16.87634652067902</v>
+        <v>-0.0009006825010446917</v>
       </c>
       <c r="D32">
-        <v>0.01400875306491213</v>
+        <v>-0.0005835281400167916</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +822,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0009006825010446917</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C33">
-        <v>17.31839950081147</v>
+        <v>0.01718019166542639</v>
       </c>
       <c r="D33">
-        <v>0.00988603167553951</v>
+        <v>0.01113058738904133</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +836,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01718019166542639</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C34">
-        <v>17.76045248094393</v>
+        <v>0.01101090182018805</v>
       </c>
       <c r="D34">
-        <v>0.01774984875030144</v>
+        <v>0.007133669247031391</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +850,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01101090182018805</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C35">
-        <v>18.20250546107638</v>
+        <v>-0.008697031181174708</v>
       </c>
       <c r="D35">
-        <v>0.01865205491550148</v>
+        <v>-0.00563457425111793</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +864,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.008697031181174708</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C36">
-        <v>18.85407340532725</v>
+        <v>-0.001360451879785174</v>
       </c>
       <c r="D36">
-        <v>0.02452203083806345</v>
+        <v>-0.0009409257113613513</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +878,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.001360451879785174</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C37">
-        <v>19.50564134957812</v>
+        <v>0.005803019593416892</v>
       </c>
       <c r="D37">
-        <v>0.02251989174475195</v>
+        <v>0.004013526990636272</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +892,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.005803019593416892</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C38">
-        <v>20.15720929382899</v>
+        <v>0.004827095062138298</v>
       </c>
       <c r="D38">
-        <v>0.02066725511943053</v>
+        <v>0.003338550905503951</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +906,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.004827095062138298</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C39">
-        <v>20.59926227396144</v>
+        <v>0.001682312566615884</v>
       </c>
       <c r="D39">
-        <v>0.02545276562227927</v>
+        <v>0.001089925386343807</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +920,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.001682312566615884</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C40">
-        <v>21.0413152540939</v>
+        <v>0.0006049403646084528</v>
       </c>
       <c r="D40">
-        <v>0.02866035698677425</v>
+        <v>0.0003919247075097048</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +934,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.0006049403646084528</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C41">
-        <v>21.48336823422635</v>
+        <v>0.008131078242485934</v>
       </c>
       <c r="D41">
-        <v>0.0314288808214651</v>
+        <v>0.005267908455716059</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +948,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.008131078242485934</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C42">
-        <v>21.9254212143588</v>
+        <v>0.008164665335697485</v>
       </c>
       <c r="D42">
-        <v>0.03152477864010477</v>
+        <v>0.005289668636476288</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +962,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.008164665335697485</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C43">
-        <v>22.36747419449125</v>
+        <v>-0.002084609394450432</v>
       </c>
       <c r="D43">
-        <v>0.02781183819572414</v>
+        <v>-0.001350562757902223</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +976,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.002084609394450432</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C44">
-        <v>23.01904213874212</v>
+        <v>-0.01626269291026006</v>
       </c>
       <c r="D44">
-        <v>0.0148969343997264</v>
+        <v>-0.01124772299748959</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +990,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.01626269291026006</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C45">
-        <v>23.46109511887457</v>
+        <v>-0.01348990088009483</v>
       </c>
       <c r="D45">
-        <v>0.01564592103382937</v>
+        <v>-0.008739746537145193</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.01348990088009483</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C46">
-        <v>23.90314809900703</v>
+        <v>-0.001365887185208692</v>
       </c>
       <c r="D46">
-        <v>0.01873044288486799</v>
+        <v>-0.0008849218317588367</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.001365887185208692</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C47">
-        <v>24.34520107913948</v>
+        <v>0.004432329111033972</v>
       </c>
       <c r="D47">
-        <v>0.01686592742048871</v>
+        <v>0.002871587667245683</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.004432329111033972</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C48">
-        <v>24.99676902339035</v>
+        <v>0.01028878335391781</v>
       </c>
       <c r="D48">
-        <v>0.02419204547243428</v>
+        <v>0.007116003836796231</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.01028878335391781</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C49">
-        <v>25.64833696764122</v>
+        <v>0.0004039724007132151</v>
       </c>
       <c r="D49">
-        <v>0.02918043933505023</v>
+        <v>0.0002793983559135196</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.0004039724007132151</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C50">
-        <v>26.29990491189209</v>
+        <v>0.02118031822351352</v>
       </c>
       <c r="D50">
-        <v>0.02817839278446147</v>
+        <v>0.01464888709953211</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.02118031822351352</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C51">
-        <v>26.74195789202454</v>
+        <v>0.004373064986083364</v>
       </c>
       <c r="D51">
-        <v>0.02885303319257629</v>
+        <v>0.002833192023317839</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.004373064986083364</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C52">
-        <v>27.184010872157</v>
+        <v>-0.007739849259568388</v>
       </c>
       <c r="D52">
-        <v>0.02921894583968821</v>
+        <v>-0.005014441645316454</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.007739849259568388</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C53">
-        <v>27.62606385228945</v>
+        <v>-0.006002438887767525</v>
       </c>
       <c r="D53">
-        <v>0.03110271234948463</v>
+        <v>-0.003888819862360849</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.006002438887767525</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C54">
-        <v>28.0681168324219</v>
+        <v>-0.00694261800617646</v>
       </c>
       <c r="D54">
-        <v>0.03131378299301191</v>
+        <v>-0.00449793680602463</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.00694261800617646</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C55">
-        <v>28.51016981255435</v>
+        <v>0.01324258247507437</v>
       </c>
       <c r="D55">
-        <v>0.02750298505424489</v>
+        <v>0.00857951554708364</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.01324258247507437</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C56">
-        <v>28.9522227926868</v>
+        <v>0.001519305375315305</v>
       </c>
       <c r="D56">
-        <v>0.02970006658698308</v>
+        <v>0.0009843173801499922</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.001519305375315305</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C57">
-        <v>29.39427577281926</v>
+        <v>0.009884975647603156</v>
       </c>
       <c r="D57">
-        <v>0.02630465956666461</v>
+        <v>0.006404211747276897</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.009884975647603156</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C58">
-        <v>29.83632875295171</v>
+        <v>-0.003371580470105329</v>
       </c>
       <c r="D58">
-        <v>0.02887229737518904</v>
+        <v>-0.002184356949708163</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.003371580470105329</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C59">
-        <v>30.27838173308416</v>
+        <v>-0.003119819939085389</v>
       </c>
       <c r="D59">
-        <v>0.03355417657467744</v>
+        <v>-0.002021248024836961</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.003119819939085389</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C60">
-        <v>30.72043471321661</v>
+        <v>0.008058747668825639</v>
       </c>
       <c r="D60">
-        <v>0.02489062114278291</v>
+        <v>0.005221047408604137</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.008058747668825639</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C61">
-        <v>31.16248769334906</v>
+        <v>0.005401548991645022</v>
       </c>
       <c r="D61">
-        <v>0.02380359248476664</v>
+        <v>0.003499519345216852</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.005401548991645022</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C62">
-        <v>31.60454067348152</v>
+        <v>0.004662164044070494</v>
       </c>
       <c r="D62">
-        <v>0.02015920870516208</v>
+        <v>0.003020491582698827</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004662164044070494</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C63">
-        <v>32.04659365361397</v>
+        <v>0.000161490884190485</v>
       </c>
       <c r="D63">
-        <v>0.02058912241827918</v>
+        <v>0.0001046256313096338</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.000161490884190485</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C64">
-        <v>32.48864663374642</v>
+        <v>-0.006252551349083646</v>
       </c>
       <c r="D64">
-        <v>0.01880882050803626</v>
+        <v>-0.00405086104688207</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.006252551349083646</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C65">
-        <v>32.93069961387887</v>
+        <v>-0.02174855760887962</v>
       </c>
       <c r="D65">
-        <v>0.02125292292389547</v>
+        <v>-0.01409030968719558</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.02174855760887962</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C66">
-        <v>33.37275259401132</v>
+        <v>0.001261285350427244</v>
       </c>
       <c r="D66">
-        <v>0.02417262885690248</v>
+        <v>0.0008171530963592206</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.001261285350427244</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C67">
-        <v>33.81480557414378</v>
+        <v>0.005194301268736545</v>
       </c>
       <c r="D67">
-        <v>0.01961159526484512</v>
+        <v>0.003365249080022149</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.005194301268736545</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C68">
-        <v>34.25685855427623</v>
+        <v>-0.003139823774937156</v>
       </c>
       <c r="D68">
-        <v>0.01649232078685095</v>
+        <v>-0.002034207975889905</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.003139823774937156</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C69">
-        <v>34.69891153440868</v>
+        <v>0.01233710316538073</v>
       </c>
       <c r="D69">
-        <v>0.02244200243967233</v>
+        <v>0.007992879682840282</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.01233710316538073</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C70">
-        <v>35.14096451454113</v>
+        <v>0.008400401041353867</v>
       </c>
       <c r="D70">
-        <v>0.02275349838075896</v>
+        <v>0.005442395504931778</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.008400401041353867</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C71">
-        <v>35.58301749467358</v>
+        <v>-0.001687435499055923</v>
       </c>
       <c r="D71">
-        <v>0.01371239716515803</v>
+        <v>-0.001093244397465595</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.001687435499055923</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C72">
-        <v>36.02507047480604</v>
+        <v>0.001136087113998485</v>
       </c>
       <c r="D72">
-        <v>0.02203957887387684</v>
+        <v>0.0007360405023519891</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.001136087113998485</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C73">
-        <v>36.46712345493849</v>
+        <v>0.0006161929203063465</v>
       </c>
       <c r="D73">
-        <v>0.02343463133032814</v>
+        <v>0.0003992149378508198</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0006161929203063465</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C74">
-        <v>36.90917643507094</v>
+        <v>0.003172242326162866</v>
       </c>
       <c r="D74">
-        <v>0.02998882856640549</v>
+        <v>0.002055211089503011</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003172242326162866</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C75">
-        <v>37.35122941520339</v>
+        <v>0.0003554406693853096</v>
       </c>
       <c r="D75">
-        <v>0.03021869331969738</v>
+        <v>0.0002302805177764206</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.0003554406693853096</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C76">
-        <v>37.79328239533584</v>
+        <v>-0.006417342305930163</v>
       </c>
       <c r="D76">
-        <v>0.02917763353426385</v>
+        <v>-0.004157624707138265</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.006417342305930163</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C77">
-        <v>38.2353353754683</v>
+        <v>0.003699861419097061</v>
       </c>
       <c r="D77">
-        <v>0.02942842589034399</v>
+        <v>0.002397041409932386</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.003699861419097061</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C78">
-        <v>38.67738835560075</v>
+        <v>-0.005717828514516299</v>
       </c>
       <c r="D78">
-        <v>0.0233537328319638</v>
+        <v>-0.003704428401951503</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.005717828514516299</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C79">
-        <v>39.1194413357332</v>
+        <v>0.004323874159615215</v>
       </c>
       <c r="D79">
-        <v>0.03141285047315129</v>
+        <v>0.002801322600472882</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.004323874159615215</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C80">
-        <v>39.56149431586565</v>
+        <v>0.007884233680427677</v>
       </c>
       <c r="D80">
-        <v>0.03370299321409777</v>
+        <v>0.005107984455855905</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.007884233680427677</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C81">
-        <v>40.0035472959981</v>
+        <v>-0.01458933317541788</v>
       </c>
       <c r="D81">
-        <v>0.03813516660883706</v>
+        <v>-0.009452039361331439</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.01458933317541788</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C82">
-        <v>40.44560027613056</v>
+        <v>-0.001830544444217708</v>
       </c>
       <c r="D82">
-        <v>0.0369782884917349</v>
+        <v>-0.001185960861361764</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.001830544444217708</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C83">
-        <v>40.88765325626301</v>
+        <v>-0.00613710267080414</v>
       </c>
       <c r="D83">
-        <v>0.04130590904519466</v>
+        <v>-0.003976064931241211</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.00613710267080414</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C84">
-        <v>41.32970623639546</v>
+        <v>0.0007239700197745336</v>
       </c>
       <c r="D84">
-        <v>0.04173707620085426</v>
+        <v>0.000469040842446645</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.0007239700197745336</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C85">
-        <v>41.77175921652791</v>
+        <v>-0.002998009065163565</v>
       </c>
       <c r="D85">
-        <v>0.03492799576716193</v>
+        <v>-0.001942330012539645</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.002998009065163565</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C86">
-        <v>42.21381219666036</v>
+        <v>0.004115841901183082</v>
       </c>
       <c r="D86">
-        <v>0.04190523018370174</v>
+        <v>0.002666544055663147</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.004115841901183082</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C87">
-        <v>42.65586517679282</v>
+        <v>0.00491675305430217</v>
       </c>
       <c r="D87">
-        <v>0.04278615881179947</v>
+        <v>0.003185433003717768</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.00491675305430217</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C88">
-        <v>43.09791815692527</v>
+        <v>-0.007680730991092233</v>
       </c>
       <c r="D88">
-        <v>0.04110520515350707</v>
+        <v>-0.004976140497903364</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.007680730991092233</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C89">
-        <v>43.53997113705772</v>
+        <v>-0.005252824314772475</v>
       </c>
       <c r="D89">
-        <v>0.04523821066752146</v>
+        <v>-0.003403164598711424</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.005252824314772475</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C90">
-        <v>43.98202411719017</v>
+        <v>0.0100191992309675</v>
       </c>
       <c r="D90">
-        <v>0.04554406184711444</v>
+        <v>0.006491171622544973</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.0100191992309675</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C91">
-        <v>44.42407709732262</v>
+        <v>0.0005245557788633448</v>
       </c>
       <c r="D91">
-        <v>0.05586561007504191</v>
+        <v>0.0003398456810475979</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0005245557788633448</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C92">
-        <v>44.86613007745508</v>
+        <v>-0.0152251161712984</v>
       </c>
       <c r="D92">
-        <v>0.05673306485548735</v>
+        <v>-0.009863946186000672</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.0152251161712984</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C93">
-        <v>45.51769802170595</v>
+        <v>0.01292815043620532</v>
       </c>
       <c r="D93">
-        <v>0.04962704384776049</v>
+        <v>0.008941462264504287</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.01292815043620532</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C94">
-        <v>46.16926596595682</v>
+        <v>0.002165852584256278</v>
       </c>
       <c r="D94">
-        <v>0.0476452469553604</v>
+        <v>0.001497962856184932</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.002165852584256278</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C95">
-        <v>46.82083391020769</v>
+        <v>0.01017554928191977</v>
       </c>
       <c r="D95">
-        <v>0.04394443530531451</v>
+        <v>0.007037688057070219</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.01017554928191977</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C96">
-        <v>47.47240185445856</v>
+        <v>0.0003568705733210109</v>
       </c>
       <c r="D96">
-        <v>0.04452832782379491</v>
+        <v>0.0002468214444446423</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.0003568705733210109</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C97">
-        <v>47.91445483459101</v>
+        <v>-0.001753133362464965</v>
       </c>
       <c r="D97">
-        <v>0.05029860519846629</v>
+        <v>-0.00113580828872993</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.001753133362464965</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C98">
-        <v>48.35650781472346</v>
+        <v>0.0004223316015536938</v>
       </c>
       <c r="D98">
-        <v>0.0510997538532357</v>
+        <v>0.0002736173664294508</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.0004223316015536938</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C99">
-        <v>49.00807575897434</v>
+        <v>-0.009431107481452372</v>
       </c>
       <c r="D99">
-        <v>0.04770142658622554</v>
+        <v>-0.006522811756717338</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.009431107481452372</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C100">
-        <v>49.65964370322521</v>
+        <v>0.01251197450624364</v>
       </c>
       <c r="D100">
-        <v>0.04818809421276716</v>
+        <v>0.008653623614149009</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.01251197450624364</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C101">
-        <v>50.31121164747608</v>
+        <v>0.003555501838556019</v>
       </c>
       <c r="D101">
-        <v>0.05345964630445143</v>
+        <v>0.002459082269942682</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003555501838556019</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C102">
-        <v>50.96277959172695</v>
+        <v>0.00688105608966616</v>
       </c>
       <c r="D102">
-        <v>0.05625335286457505</v>
+        <v>0.004759126502224301</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.00688105608966616</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C103">
-        <v>51.61434753597782</v>
+        <v>-0.001796081178172315</v>
       </c>
       <c r="D103">
-        <v>0.05839062029998895</v>
+        <v>-0.001242218843125404</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.001796081178172315</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C104">
-        <v>52.26591548022869</v>
+        <v>0.006718735281993737</v>
       </c>
       <c r="D104">
-        <v>0.06059352153186825</v>
+        <v>0.004646860994199099</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.006718735281993737</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C105">
-        <v>52.91748342447956</v>
+        <v>0.0006693974079707843</v>
       </c>
       <c r="D105">
-        <v>0.06136261037368596</v>
+        <v>0.0004629735469789741</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0006693974079707843</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C106">
-        <v>53.56905136873043</v>
+        <v>-0.01057126159344257</v>
       </c>
       <c r="D106">
-        <v>0.06760649558749383</v>
+        <v>-0.007311373509489771</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.01057126159344257</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C107">
-        <v>54.01110434886289</v>
+        <v>0.01174958691568406</v>
       </c>
       <c r="D107">
-        <v>0.06744349781134691</v>
+        <v>0.007612243594077053</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.01174958691568406</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C108">
-        <v>54.66267229311376</v>
+        <v>0.001367662941194503</v>
       </c>
       <c r="D108">
-        <v>0.07029853278632016</v>
+        <v>0.0009459130785641624</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.001367662941194503</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C109">
-        <v>55.31424023736463</v>
+        <v>-0.002609721095426565</v>
       </c>
       <c r="D109">
-        <v>0.06825803965330125</v>
+        <v>-0.001804954452748977</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.002609721095426565</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C110">
-        <v>55.9658081816155</v>
+        <v>0.006416590739565464</v>
       </c>
       <c r="D110">
-        <v>0.06861969992275371</v>
+        <v>0.004437889568790679</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.006416590739565464</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C111">
-        <v>56.61737612586637</v>
+        <v>0.0004748413327799739</v>
       </c>
       <c r="D111">
-        <v>0.06680919191618903</v>
+        <v>0.000328413246707646</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.0004748413327799739</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C112">
-        <v>57.05942910599882</v>
+        <v>0.01738137502173842</v>
       </c>
       <c r="D112">
-        <v>0.05907071999080342</v>
+        <v>0.01126092871306497</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.01738137502173842</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C113">
-        <v>57.50148208613128</v>
+        <v>0.001460784421132288</v>
       </c>
       <c r="D113">
-        <v>0.06066681101805499</v>
+        <v>0.0009464032167163572</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.001460784421132288</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C114">
-        <v>57.94353506626373</v>
+        <v>-0.01196646213534702</v>
       </c>
       <c r="D114">
-        <v>0.06964922491581527</v>
+        <v>-0.007752751257320063</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.01196646213534702</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C115">
-        <v>58.38558804639618</v>
+        <v>-0.003337324424887989</v>
       </c>
       <c r="D115">
-        <v>0.06699049131952398</v>
+        <v>-0.002162163372807513</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.003337324424887989</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C116">
-        <v>58.82764102652863</v>
+        <v>-0.006232126591262599</v>
       </c>
       <c r="D116">
-        <v>0.060941566059773</v>
+        <v>-0.004037628391725803</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.006232126591262599</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C117">
-        <v>59.26969400666108</v>
+        <v>0.0009832686542736724</v>
       </c>
       <c r="D117">
-        <v>0.06395551091934756</v>
+        <v>0.0006370335032596128</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0009832686542736724</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C118">
-        <v>59.71174698679354</v>
+        <v>0.009717084376667628</v>
       </c>
       <c r="D118">
-        <v>0.06326274485911332</v>
+        <v>0.006295439476315231</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.009717084376667628</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C119">
-        <v>60.15379996692599</v>
+        <v>0.001349125626234127</v>
       </c>
       <c r="D119">
-        <v>0.06119788945448532</v>
+        <v>0.0008740624653107653</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.001349125626234127</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C120">
-        <v>60.59585294705844</v>
+        <v>-0.005722746178202343</v>
       </c>
       <c r="D120">
-        <v>0.05719396121760731</v>
+        <v>-0.003707614424929208</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.005722746178202343</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C121">
-        <v>61.03790592719089</v>
+        <v>0.0008195429930726306</v>
       </c>
       <c r="D121">
-        <v>0.0554221652221207</v>
+        <v>0.0005309600196037748</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.0008195429930726306</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C122">
-        <v>61.47995890732334</v>
+        <v>0.008877236421206192</v>
       </c>
       <c r="D122">
-        <v>0.05682527275012656</v>
+        <v>0.005751324413816642</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.008877236421206192</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C123">
-        <v>61.9220118874558</v>
+        <v>0.004704571479965836</v>
       </c>
       <c r="D123">
-        <v>0.05816988004799348</v>
+        <v>0.003047966227939727</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.004704571479965836</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C124">
-        <v>62.36406486758825</v>
+        <v>0.003599135129375597</v>
       </c>
       <c r="D124">
-        <v>0.06033693707508136</v>
+        <v>0.002331783536682063</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.003599135129375597</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C125">
-        <v>62.8061178477207</v>
+        <v>0.003709661729191183</v>
       </c>
       <c r="D125">
-        <v>0.06251437921366221</v>
+        <v>0.002403390769128526</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.003709661729191183</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C126">
-        <v>63.24817082785315</v>
+        <v>0.001295137249710088</v>
       </c>
       <c r="D126">
-        <v>0.06515681867098096</v>
+        <v>0.0008390848379014864</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.001295137249710088</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C127">
-        <v>63.6902238079856</v>
+        <v>0.01051463482970849</v>
       </c>
       <c r="D127">
-        <v>0.06733480776600387</v>
+        <v>0.006812151116535486</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.01051463482970849</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C128">
-        <v>64.13227678811805</v>
+        <v>-0.0002744864832635585</v>
       </c>
       <c r="D128">
-        <v>0.06966727083565227</v>
+        <v>-0.0001778324624412647</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.0002744864832635585</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C129">
-        <v>64.57432976825049</v>
+        <v>0.004807847863939507</v>
       </c>
       <c r="D129">
-        <v>0.06317153123420492</v>
+        <v>0.003114876239156684</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.004807847863939507</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C130">
-        <v>65.01638274838294</v>
+        <v>-0.003436168256068406</v>
       </c>
       <c r="D130">
-        <v>0.05534822554126923</v>
+        <v>-0.002226201651439486</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.003436168256068406</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C131">
-        <v>65.45843572851538</v>
+        <v>0.0006090319625506879</v>
       </c>
       <c r="D131">
-        <v>0.05599488580453299</v>
+        <v>0.000394575544551792</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.0006090319625506879</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C132">
-        <v>65.90048870864783</v>
+        <v>-0.00304887580303248</v>
       </c>
       <c r="D132">
-        <v>0.06110635808554912</v>
+        <v>-0.001975285213626535</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.00304887580303248</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C133">
-        <v>66.34254168878027</v>
+        <v>-0.0130315026060126</v>
       </c>
       <c r="D133">
-        <v>0.0638279568299143</v>
+        <v>-0.008442762536732337</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.0130315026060126</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C134">
-        <v>66.78459466891272</v>
+        <v>0.002687799940558122</v>
       </c>
       <c r="D134">
-        <v>0.06258743202766459</v>
+        <v>0.001741353804733573</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.002687799940558122</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C135">
-        <v>67.22664764904516</v>
+        <v>0.01512628736597943</v>
       </c>
       <c r="D135">
-        <v>0.0549228936200396</v>
+        <v>0.009799917642223068</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.01512628736597943</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C136">
-        <v>67.66870062917761</v>
+        <v>-0.004477278476013424</v>
       </c>
       <c r="D136">
-        <v>0.04880521392112427</v>
+        <v>-0.002900709160458855</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.004477278476013424</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C137">
-        <v>68.11075360931005</v>
+        <v>-0.01018632438626987</v>
       </c>
       <c r="D137">
-        <v>0.05035453437779375</v>
+        <v>-0.006599447547646765</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.01018632438626987</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C138">
-        <v>68.5528065894425</v>
+        <v>0.005075450382275193</v>
       </c>
       <c r="D138">
-        <v>0.04150478392863755</v>
+        <v>0.003288248764555047</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.005075450382275193</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C139">
-        <v>68.99485956957494</v>
+        <v>-0.001166610515143773</v>
       </c>
       <c r="D139">
-        <v>0.0390285483605449</v>
+        <v>-0.0007558157988373069</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.001166610515143773</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C140">
-        <v>69.43691254970739</v>
+        <v>-0.003477194056642929</v>
       </c>
       <c r="D140">
-        <v>0.0345936912865689</v>
+        <v>-0.002252781172052115</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.003477194056642929</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C141">
-        <v>69.87896552983983</v>
+        <v>-0.006742571628644001</v>
       </c>
       <c r="D141">
-        <v>0.03620795186073102</v>
+        <v>-0.004368332100189648</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.006742571628644001</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C142">
-        <v>70.32101850997228</v>
+        <v>-0.002983685197172292</v>
       </c>
       <c r="D142">
-        <v>0.04570738792855315</v>
+        <v>-0.001933049960981967</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.002983685197172292</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C143">
-        <v>70.76307149010472</v>
+        <v>0.002362817825537711</v>
       </c>
       <c r="D143">
-        <v>0.04719148940392393</v>
+        <v>0.001530806570945166</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.002362817825537711</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C144">
-        <v>71.20512447023717</v>
+        <v>0.00226430407387479</v>
       </c>
       <c r="D144">
-        <v>0.04891868667173162</v>
+        <v>0.001466982142017921</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.00226430407387479</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C145">
-        <v>71.64717745036961</v>
+        <v>0.003649300477944983</v>
       </c>
       <c r="D145">
-        <v>0.05004711853318941</v>
+        <v>0.002364284326372142</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.003649300477944983</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C146">
-        <v>72.08923043050206</v>
+        <v>0.003666788892814132</v>
       </c>
       <c r="D146">
-        <v>0.04838456625673049</v>
+        <v>0.002375614603343883</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.003666788892814132</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C147">
-        <v>72.5312834106345</v>
+        <v>0.00444983932309917</v>
       </c>
       <c r="D147">
-        <v>0.05246155476138183</v>
+        <v>0.002882932066038657</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.00444983932309917</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C148">
-        <v>72.97333639076695</v>
+        <v>0.003667709961517218</v>
       </c>
       <c r="D148">
-        <v>0.04974950200958483</v>
+        <v>0.002376211339159795</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.003667709961517218</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C149">
-        <v>73.41538937089939</v>
+        <v>0.00392784245567146</v>
       </c>
       <c r="D149">
-        <v>0.04993368736491018</v>
+        <v>0.002544744235375375</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.00392784245567146</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C150">
-        <v>73.85744235103184</v>
+        <v>-0.01093875488086393</v>
       </c>
       <c r="D150">
-        <v>0.04774805540434992</v>
+        <v>-0.00708692717170199</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.01093875488086393</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C151">
-        <v>74.29949533116428</v>
+        <v>-0.01317436174843323</v>
       </c>
       <c r="D151">
-        <v>0.05053846283595474</v>
+        <v>-0.008535317160103403</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.01317436174843323</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C152">
-        <v>74.74154831129673</v>
+        <v>0.001088968854210393</v>
       </c>
       <c r="D152">
-        <v>0.05122865944111057</v>
+        <v>0.0007055138401118737</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.001088968854210393</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C153">
-        <v>75.18360129142917</v>
+        <v>0.008607663760090922</v>
       </c>
       <c r="D153">
-        <v>0.05019312071272485</v>
+        <v>0.005576675485523358</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.008607663760090922</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C154">
-        <v>75.62565427156161</v>
+        <v>0.004583142702032639</v>
       </c>
       <c r="D154">
-        <v>0.04450617554247551</v>
+        <v>0.002969295765429704</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.004583142702032639</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C155">
-        <v>76.06770725169406</v>
+        <v>-0.002089030282620641</v>
       </c>
       <c r="D155">
-        <v>0.04816383039382564</v>
+        <v>-0.001353426933289435</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.002089030282620641</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C156">
-        <v>76.5097602318265</v>
+        <v>-0.0129069993657529</v>
       </c>
       <c r="D156">
-        <v>0.05343293216764945</v>
+        <v>-0.008362100212183409</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.0129069993657529</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C157">
-        <v>76.95181321195895</v>
+        <v>-0.01030210611446947</v>
       </c>
       <c r="D157">
-        <v>0.05354434456217372</v>
+        <v>-0.006674459437436868</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.01030210611446947</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C158">
-        <v>77.39386619209139</v>
+        <v>0.002609038808088826</v>
       </c>
       <c r="D158">
-        <v>0.05222462284093118</v>
+        <v>0.001690326570295115</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.002609038808088826</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C159">
-        <v>78.07541381113901</v>
+        <v>-0.01355920835327851</v>
       </c>
       <c r="D159">
-        <v>0.04931460955603694</v>
+        <v>-0.009459929096322891</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.01355920835327851</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C160">
-        <v>78.75696143018664</v>
+        <v>-0.003793982010280139</v>
       </c>
       <c r="D160">
-        <v>0.04907146352533428</v>
+        <v>-0.002646968751777945</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.003793982010280139</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C161">
-        <v>79.43850904923426</v>
+        <v>-0.006794897938481981</v>
       </c>
       <c r="D161">
-        <v>0.05103249584367558</v>
+        <v>-0.004740634632939165</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.006794897938481981</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C162">
-        <v>80.12005666828188</v>
+        <v>0.002473300867329442</v>
       </c>
       <c r="D162">
-        <v>0.04811662037439719</v>
+        <v>0.001725561716378019</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.002473300867329442</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C163">
-        <v>80.8016042873295</v>
+        <v>0.01455462881380232</v>
       </c>
       <c r="D163">
-        <v>0.05307998828737971</v>
+        <v>0.01015440968340727</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.01455462881380232</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C164">
-        <v>81.48315190637712</v>
+        <v>0.002273876674554032</v>
       </c>
       <c r="D164">
-        <v>0.0607049897295921</v>
+        <v>0.001586428319014842</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.002273876674554032</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C165">
-        <v>82.16469952542474</v>
+        <v>0.002646337629062856</v>
       </c>
       <c r="D165">
-        <v>0.06211583476610719</v>
+        <v>0.001846285246425378</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.002646337629062856</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C166">
-        <v>82.84624714447236</v>
+        <v>0.001728934935497861</v>
       </c>
       <c r="D166">
-        <v>0.06469067332858712</v>
+        <v>0.001206235753285014</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.001728934935497861</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C167">
-        <v>83.52779476351998</v>
+        <v>-0.002547291343890201</v>
       </c>
       <c r="D167">
-        <v>0.06436259151854479</v>
+        <v>-0.001777183067996137</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.002547291343890201</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C168">
-        <v>84.2093423825676</v>
+        <v>0.006246587054187458</v>
       </c>
       <c r="D168">
-        <v>0.06897550625305136</v>
+        <v>0.004358091496715868</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.006246587054187458</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C169">
-        <v>85.13880296348046</v>
+        <v>-0.003699295710297257</v>
       </c>
       <c r="D169">
-        <v>0.06310326271642297</v>
+        <v>-0.002756971349223173</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.003699295710297257</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C170">
-        <v>86.06826354439332</v>
+        <v>0.0002512326113137675</v>
       </c>
       <c r="D170">
-        <v>0.06372413531138933</v>
+        <v>0.0001872359404668738</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.0002512326113137675</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C171">
-        <v>86.51031652452576</v>
+        <v>-0.00368058046400499</v>
       </c>
       <c r="D171">
-        <v>0.06507485751349665</v>
+        <v>-0.002384549794019371</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.00368058046400499</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C172">
-        <v>87.43977710543862</v>
+        <v>0.003806173104441868</v>
       </c>
       <c r="D172">
-        <v>0.06700656312776276</v>
+        <v>0.002836623784878999</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.003806173104441868</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C173">
-        <v>88.36923768635148</v>
+        <v>0.0009414423591218579</v>
       </c>
       <c r="D173">
-        <v>0.06667000397947133</v>
+        <v>0.000701628043364901</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.0009414423591218579</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C174">
-        <v>89.29869826726434</v>
+        <v>-0.001412496115064776</v>
       </c>
       <c r="D174">
-        <v>0.07045299714646025</v>
+        <v>-0.001052689923998995</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.001412496115064776</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C175">
-        <v>90.2281588481772</v>
+        <v>-0.007757110129609224</v>
       </c>
       <c r="D175">
-        <v>0.06218527060801886</v>
+        <v>-0.005781135668763016</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.007757110129609224</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C176">
-        <v>91.15761942909006</v>
+        <v>0.004989116414635397</v>
       </c>
       <c r="D176">
-        <v>0.06299985600276686</v>
+        <v>0.003718235061555423</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.004989116414635397</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C177">
-        <v>92.08708001000292</v>
+        <v>0.00718716314648038</v>
       </c>
       <c r="D177">
-        <v>0.06446347880562862</v>
+        <v>0.005356371706615166</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.00718716314648038</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C178">
-        <v>92.52913299013537</v>
+        <v>0.0001876172613384242</v>
       </c>
       <c r="D178">
-        <v>0.06329286929981004</v>
+        <v>0.0001215522133680519</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.0001876172613384242</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C179">
-        <v>92.97118597026781</v>
+        <v>-0.002222397033342816</v>
       </c>
       <c r="D179">
-        <v>0.06327456020393316</v>
+        <v>-0.001439831689570063</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.002222397033342816</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C180">
-        <v>93.41323895040026</v>
+        <v>-0.004900430740238271</v>
       </c>
       <c r="D180">
-        <v>0.06637902543255098</v>
+        <v>-0.003174858212317437</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.004900430740238271</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C181">
-        <v>93.8552919305327</v>
+        <v>-0.0004094552727327283</v>
       </c>
       <c r="D181">
-        <v>0.06795860162948411</v>
+        <v>-0.0002652751368441891</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.0004094552727327283</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C182">
-        <v>94.29734491066515</v>
+        <v>0.003302357107881626</v>
       </c>
       <c r="D182">
-        <v>0.07223818914380183</v>
+        <v>0.002139508981909018</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.003302357107881626</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C183">
-        <v>94.73939789079759</v>
+        <v>-0.0049103025950199</v>
       </c>
       <c r="D183">
-        <v>0.07387857429734397</v>
+        <v>-0.003181253923406037</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.0049103025950199</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C184">
-        <v>95.18145087093004</v>
+        <v>0.008358257614200504</v>
       </c>
       <c r="D184">
-        <v>0.08217299633274978</v>
+        <v>0.005415091903904544</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.008358257614200504</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C185">
-        <v>95.62350385106248</v>
+        <v>0.01284041954576054</v>
       </c>
       <c r="D185">
-        <v>0.08576569051065205</v>
+        <v>0.008318964924801083</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.01284041954576054</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C186">
-        <v>96.06555683119493</v>
+        <v>0.00237584770576138</v>
       </c>
       <c r="D186">
-        <v>0.09026560795701259</v>
+        <v>0.001539248282383703</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.00237584770576138</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C187">
-        <v>96.50760981132737</v>
+        <v>0.004336000151004882</v>
       </c>
       <c r="D187">
-        <v>0.09521812746690549</v>
+        <v>0.002809178706473903</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.004336000151004882</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C188">
-        <v>96.94966279145982</v>
+        <v>-0.0005524862018981835</v>
       </c>
       <c r="D188">
-        <v>0.09696950144722528</v>
+        <v>-0.000357941056259726</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.0005524862018981835</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C189">
-        <v>97.39171577159226</v>
+        <v>0.007768098271034418</v>
       </c>
       <c r="D189">
-        <v>0.1023987653029769</v>
+        <v>0.005032743425465359</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.007768098271034418</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C190">
-        <v>97.8337687517247</v>
+        <v>-0.009888794285042302</v>
       </c>
       <c r="D190">
-        <v>0.1043514726977866</v>
+        <v>-0.006406685740498346</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.009888794285042302</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C191">
-        <v>98.27582173185715</v>
+        <v>0.001045542701106683</v>
       </c>
       <c r="D191">
-        <v>0.1025531600850759</v>
+        <v>0.0006773791951961571</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.001045542701106683</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C192">
-        <v>99.20528231277001</v>
+        <v>0.001842412853049424</v>
       </c>
       <c r="D192">
-        <v>0.1047446627400661</v>
+        <v>0.001373093650004429</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.001842412853049424</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C193">
-        <v>100.1347428936829</v>
+        <v>0.002634886171619222</v>
       </c>
       <c r="D193">
-        <v>0.1065363609545833</v>
+        <v>0.001963699647853998</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.002634886171619222</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C194">
-        <v>101.0642034745957</v>
+        <v>-0.0004590735975584792</v>
       </c>
       <c r="D194">
-        <v>0.1118117009878007</v>
+        <v>-0.0003421334369486875</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.0004590735975584792</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C195">
-        <v>101.9936640555086</v>
+        <v>0.005160080453985749</v>
       </c>
       <c r="D195">
-        <v>0.1091714077044793</v>
+        <v>0.003845649303386474</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.005160080453985749</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C196">
-        <v>102.435717035641</v>
+        <v>-0.01392276162145922</v>
       </c>
       <c r="D196">
-        <v>0.1111020068372266</v>
+        <v>-0.009020185452081013</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.01392276162145922</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C197">
-        <v>103.3651776165539</v>
+        <v>0.0011111112254234</v>
       </c>
       <c r="D197">
-        <v>0.1049667854834215</v>
+        <v>0.0008280770325458554</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.0011111112254234</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C198">
-        <v>103.8072305966863</v>
+        <v>0.002464724890600678</v>
       </c>
       <c r="D198">
-        <v>0.1074557050400976</v>
+        <v>0.001596829437007058</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.002464724890600678</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C199">
-        <v>104.2492835768188</v>
+        <v>-0.001971293683402209</v>
       </c>
       <c r="D199">
-        <v>0.1072666600990421</v>
+        <v>-0.001277148534770371</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.001971293683402209</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C200">
-        <v>104.6913365569512</v>
+        <v>-3.083231843881151e-05</v>
       </c>
       <c r="D200">
-        <v>0.1049732371027449</v>
+        <v>-1.997543575026376e-05</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-3.083231843881151e-05</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C201">
-        <v>105.1333895370837</v>
+        <v>0.005227885699797596</v>
       </c>
       <c r="D201">
-        <v>0.1069670084898624</v>
+        <v>0.003387007536046161</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.005227885699797596</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C202">
-        <v>105.8149371561313</v>
+        <v>0.002420158951051299</v>
       </c>
       <c r="D202">
-        <v>0.1092253322388238</v>
+        <v>0.001688485896983857</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.002420158951051299</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C203">
-        <v>106.4964847751789</v>
+        <v>0.006557000573756966</v>
       </c>
       <c r="D203">
-        <v>0.1093439538109528</v>
+        <v>0.004574659441477743</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.006557000573756966</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C204">
-        <v>106.9385377553114</v>
+        <v>0.002762390767759193</v>
       </c>
       <c r="D204">
-        <v>0.1167949586759607</v>
+        <v>0.001789679209755287</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.002762390767759193</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C205">
-        <v>107.3805907354438</v>
+        <v>0.01396771654817019</v>
       </c>
       <c r="D205">
-        <v>0.121521695845312</v>
+        <v>0.009049310548591512</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.01396771654817019</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C206">
-        <v>107.8226437155762</v>
+        <v>0.006050057943397746</v>
       </c>
       <c r="D206">
-        <v>0.1272600053627406</v>
+        <v>0.003919670976853503</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.006050057943397746</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C207">
-        <v>108.2646966957087</v>
+        <v>0.00757781206606456</v>
       </c>
       <c r="D207">
-        <v>0.1191930970295021</v>
+        <v>0.004909462074791704</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.00757781206606456</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C208">
-        <v>108.7067496758411</v>
+        <v>0.008339989021318495</v>
       </c>
       <c r="D208">
-        <v>0.1215011211794898</v>
+        <v>0.005403256170432652</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.008339989021318495</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C209">
-        <v>109.1488026559736</v>
+        <v>0.002949294745616449</v>
       </c>
       <c r="D209">
-        <v>0.1201625278304547</v>
+        <v>0.001910769305803874</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.002949294745616449</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C210">
-        <v>109.590855636106</v>
+        <v>0.009142821317586147</v>
       </c>
       <c r="D210">
-        <v>0.111599730297885</v>
+        <v>0.005923389775829774</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.009142821317586147</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C211">
-        <v>110.0329086162385</v>
+        <v>0.003288338027145343</v>
       </c>
       <c r="D211">
-        <v>0.09555499083478071</v>
+        <v>0.002130426393874611</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.003288338027145343</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C212">
-        <v>110.4749615963709</v>
+        <v>-0.003028338892344884</v>
       </c>
       <c r="D212">
-        <v>0.08922403412030612</v>
+        <v>-0.001961979897623033</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.003028338892344884</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C213">
-        <v>110.9170145765034</v>
+        <v>0.003690466649611146</v>
       </c>
       <c r="D213">
-        <v>0.05786167957459291</v>
+        <v>0.002390954789666483</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.003690466649611146</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C214">
-        <v>111.3590675566358</v>
+        <v>0.003017200317684932</v>
       </c>
       <c r="D214">
-        <v>0.03780756706027082</v>
+        <v>0.001954763512552576</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.003017200317684932</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C215">
-        <v>111.8011205367683</v>
+        <v>0.008883615273573398</v>
       </c>
       <c r="D215">
-        <v>0.07163945576497083</v>
+        <v>0.005755457101920341</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.008883615273573398</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C216">
-        <v>112.2431735169007</v>
+        <v>-0.004446225189416175</v>
       </c>
       <c r="D216">
-        <v>0.06468203365340054</v>
+        <v>-0.002880590565339616</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.004446225189416175</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C217">
-        <v>112.6852264970331</v>
+        <v>0.003251107954146626</v>
       </c>
       <c r="D217">
-        <v>0.09755339448065339</v>
+        <v>0.002106306023794774</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.003251107954146626</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C218">
-        <v>113.1272794771656</v>
+        <v>-0.01033164607062798</v>
       </c>
       <c r="D218">
-        <v>0.08696264910361916</v>
+        <v>-0.006693597586177805</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.01033164607062798</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C219">
-        <v>113.569332457298</v>
+        <v>0.004191313479161352</v>
       </c>
       <c r="D219">
-        <v>0.0823704746121529</v>
+        <v>0.002715440075593268</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.004191313479161352</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C220">
-        <v>114.4987930382109</v>
+        <v>-0.0002578611861574487</v>
       </c>
       <c r="D220">
-        <v>0.04497220504430152</v>
+        <v>-0.0001921760134865411</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.0002578611861574487</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C221">
-        <v>115.4282536191238</v>
+        <v>-0.003128276117224438</v>
       </c>
       <c r="D221">
-        <v>0.05144776568728015</v>
+        <v>-0.002331408003864028</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.003128276117224438</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C222">
-        <v>115.8703065992562</v>
+        <v>0.003357489343830622</v>
       </c>
       <c r="D222">
-        <v>0.0177473551652975</v>
+        <v>0.002175227685293362</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.003357489343830622</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C223">
-        <v>116.3123595793886</v>
+        <v>0.003802992645520753</v>
       </c>
       <c r="D223">
-        <v>-0.05151010135707202</v>
+        <v>0.002463857377449092</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.003802992645520753</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C224">
-        <v>116.7544125595211</v>
+        <v>0.0001997574380618872</v>
       </c>
       <c r="D224">
-        <v>-0.01670444492515893</v>
+        <v>0.0001294175096680252</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0001997574380618872</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C225">
-        <v>117.6838731404339</v>
+        <v>0.01016332382040286</v>
       </c>
       <c r="D225">
-        <v>-0.09570689793731807</v>
+        <v>0.007574412747738012</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.01016332382040286</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C226">
-        <v>118.6133337213468</v>
+        <v>0.006447366675555344</v>
       </c>
       <c r="D226">
-        <v>-0.01634975748388358</v>
+        <v>0.004805024143640038</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.006447366675555344</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C227">
-        <v>119.5427943022597</v>
+        <v>0.007827172155156603</v>
       </c>
       <c r="D227">
-        <v>-0.04693893198291461</v>
+        <v>0.005833350742179557</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.007827172155156603</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C228">
-        <v>120.4722548831725</v>
+        <v>-0.01100342881337291</v>
       </c>
       <c r="D228">
-        <v>-0.08317054497536663</v>
+        <v>-0.00820051716796876</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.01100342881337291</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C229">
-        <v>121.4017154640854</v>
+        <v>0.003148192391042137</v>
       </c>
       <c r="D229">
-        <v>-0.1381348416937989</v>
+        <v>0.002346250990367064</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.003148192391042137</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C230">
-        <v>122.3311760449982</v>
+        <v>-0.001825868848102985</v>
       </c>
       <c r="D230">
-        <v>-0.1734080916991437</v>
+        <v>-0.001360763911802701</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.001825868848102985</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C231">
-        <v>123.2606366259111</v>
+        <v>-0.0116798318762017</v>
       </c>
       <c r="D231">
-        <v>-0.1065516905193839</v>
+        <v>-0.008704619573071143</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.0116798318762017</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C232">
-        <v>124.190097206824</v>
+        <v>-0.02188535449001527</v>
       </c>
       <c r="D232">
-        <v>-0.08850279501438045</v>
+        <v>-0.01631048178403571</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.02188535449001527</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C233">
-        <v>124.8716448258716</v>
+        <v>-0.009700020544119781</v>
       </c>
       <c r="D233">
-        <v>-0.0366336518538106</v>
+        <v>-0.006767467848376363</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.009700020544119781</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C234">
-        <v>125.5531924449192</v>
+        <v>-0.04805205549895053</v>
       </c>
       <c r="D234">
-        <v>-0.03328037742948772</v>
+        <v>-0.03352474761867151</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.04805205549895053</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C235">
-        <v>125.9952454250516</v>
+        <v>-0.03377090748812606</v>
       </c>
       <c r="D235">
-        <v>-0.009888844152430704</v>
+        <v>-0.02187926912132549</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.03377090748812606</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C236">
-        <v>126.4372984051841</v>
+        <v>0.05697253282981407</v>
       </c>
       <c r="D236">
-        <v>-0.03631353919975572</v>
+        <v>0.03691098258894383</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.05697253282981407</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C237">
-        <v>126.8793513853165</v>
+        <v>-0.01171622320947296</v>
       </c>
       <c r="D237">
-        <v>-0.07698052026312821</v>
+        <v>-0.007590628139788946</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.01171622320947296</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C238">
-        <v>127.321404365449</v>
+        <v>0.05535501432502521</v>
       </c>
       <c r="D238">
-        <v>-0.05703395269602776</v>
+        <v>0.03586303554495508</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.05535501432502521</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C239">
-        <v>127.9729723096999</v>
+        <v>-0.0164423876234725</v>
       </c>
       <c r="D239">
-        <v>-0.08079025765686255</v>
+        <v>-0.01137200477354476</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.0164423876234725</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C240">
-        <v>128.4150252898323</v>
+        <v>-0.00773317192719869</v>
       </c>
       <c r="D240">
-        <v>-0.03212106349117034</v>
+        <v>-0.005010115579989945</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.00773317192719869</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C241">
-        <v>129.0665932340832</v>
+        <v>-0.05806171546859762</v>
       </c>
       <c r="D241">
-        <v>-0.03998148449039816</v>
+        <v>-0.04015706967803769</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.05806171546859762</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C242">
-        <v>129.718161178334</v>
+        <v>0.01005346407459129</v>
       </c>
       <c r="D242">
-        <v>-0.006038814745580427</v>
+        <v>0.006953250590182094</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.01005346407459129</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C243">
-        <v>130.3697291225849</v>
+        <v>-0.05232070011560985</v>
       </c>
       <c r="D243">
-        <v>0.02383508302725534</v>
+        <v>-0.03618642651512079</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.05232070011560985</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C244">
-        <v>131.0212970668358</v>
+        <v>-0.1075238715894313</v>
       </c>
       <c r="D244">
-        <v>0.002325272962512261</v>
+        <v>-0.07436644902103272</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.1075238715894313</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C245">
-        <v>131.6728650110867</v>
+        <v>0.05403662104689211</v>
       </c>
       <c r="D245">
-        <v>0.02120621958560772</v>
+        <v>0.0373732043401193</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.05403662104689211</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C246">
-        <v>132.3244329553375</v>
+        <v>-0.1226532136678422</v>
       </c>
       <c r="D246">
-        <v>-0.0008039541955271769</v>
+        <v>-0.08483031560027982</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.1226532136678422</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C247">
-        <v>132.9760008995884</v>
+        <v>0.1232038744747079</v>
       </c>
       <c r="D247">
-        <v>-0.000328195493495651</v>
+        <v>0.08521116766797718</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.1232038744747079</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C248">
-        <v>133.6275688438393</v>
+        <v>-0.04749043115376583</v>
       </c>
       <c r="D248">
-        <v>0.02066241770228402</v>
+        <v>-0.032845680453814</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.04749043115376583</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C249">
-        <v>134.2791367880901</v>
+        <v>-0.05625045299808384</v>
       </c>
       <c r="D249">
-        <v>-0.00486215446022285</v>
+        <v>-0.03890435103811093</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.05625045299808384</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C250">
-        <v>134.930704732341</v>
+        <v>-0.08533339627404946</v>
       </c>
       <c r="D250">
-        <v>-0.01528686553133736</v>
+        <v>-0.05901890966163307</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.08533339627404946</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C251">
-        <v>135.5822726765919</v>
+        <v>-0.0547625713469797</v>
       </c>
       <c r="D251">
-        <v>0.003422293756707188</v>
+        <v>-0.03787529141329882</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.0547625713469797</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C252">
-        <v>136.2338406208428</v>
+        <v>0.1037961752618237</v>
       </c>
       <c r="D252">
-        <v>-0.008026581522459195</v>
+        <v>0.07178827233510161</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1037961752618237</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C253">
-        <v>136.8854085650936</v>
+        <v>0.028021345571422</v>
       </c>
       <c r="D253">
-        <v>-0.003991937991070818</v>
+        <v>0.01938032862967259</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.028021345571422</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C254">
-        <v>137.5369765093445</v>
+        <v>0.08052809572713038</v>
       </c>
       <c r="D254">
-        <v>0.002992312180605667</v>
+        <v>0.05569543243866146</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.08052809572713038</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C255">
-        <v>138.1885444535954</v>
+        <v>0.005206039417410047</v>
       </c>
       <c r="D255">
-        <v>0.005267950716375825</v>
+        <v>0.003600639180986904</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.005206039417410047</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C256">
-        <v>138.8401123978462</v>
+        <v>0.03631591956527913</v>
       </c>
       <c r="D256">
-        <v>-0.0006741669679502247</v>
+        <v>0.02511708275642773</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.03631591956527913</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C257">
-        <v>139.4916803420971</v>
+        <v>-0.04102497636685154</v>
       </c>
       <c r="D257">
-        <v>-0.01619464312381299</v>
+        <v>-0.02837399517405782</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.04102497636685154</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C258">
-        <v>140.143248286348</v>
+        <v>-0.06313646889956992</v>
       </c>
       <c r="D258">
-        <v>-0.03214377509276949</v>
+        <v>-0.04366690788177855</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.06313646889956992</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C259">
-        <v>140.7948162305989</v>
+        <v>0.03096752721552942</v>
       </c>
       <c r="D259">
-        <v>-0.02730165271104146</v>
+        <v>0.0214179883958668</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.03096752721552942</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C260">
-        <v>141.4463841748497</v>
+        <v>-0.03688223640183974</v>
       </c>
       <c r="D260">
-        <v>-0.02135557805564687</v>
+        <v>-0.0255087629622582</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.03688223640183974</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C261">
-        <v>142.0979521191006</v>
+        <v>0.07556009773680827</v>
       </c>
       <c r="D261">
-        <v>-0.04438762111495392</v>
+        <v>0.05225942921609712</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.07556009773680827</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C262">
-        <v>142.7495200633515</v>
+        <v>-0.0122034931774726</v>
       </c>
       <c r="D262">
-        <v>-0.04156975489289494</v>
+        <v>-0.008440269494074275</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.0122034931774726</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C263">
-        <v>143.4010880076023</v>
+        <v>0.05269681340182419</v>
       </c>
       <c r="D263">
-        <v>-0.02874595266919171</v>
+        <v>0.03644655674584939</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.05269681340182419</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C264">
-        <v>144.0526559518532</v>
+        <v>0.04637994678543667</v>
       </c>
       <c r="D264">
-        <v>-0.03182588552171258</v>
+        <v>0.03207763910685303</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.04637994678543667</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C265">
-        <v>144.7042238961041</v>
+        <v>-0.03339449889511137</v>
       </c>
       <c r="D265">
-        <v>-0.03766366422549172</v>
+        <v>-0.02309654835671238</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.03339449889511137</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C266">
-        <v>145.355791840355</v>
+        <v>0.029313124999514</v>
       </c>
       <c r="D266">
-        <v>-0.04348548659366389</v>
+        <v>0.02027375859611238</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.029313124999514</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C267">
-        <v>146.0073597846058</v>
+        <v>-0.0341713256324887</v>
       </c>
       <c r="D267">
-        <v>-0.03786478435098002</v>
+        <v>-0.02363382296475416</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.0341713256324887</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C268">
-        <v>146.6589277288567</v>
+        <v>0.0007386268591638157</v>
       </c>
       <c r="D268">
-        <v>-0.04628379663353865</v>
+        <v>0.0005108545279815842</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.0007386268591638157</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C269">
-        <v>147.3104956731076</v>
+        <v>0.03258843323415217</v>
       </c>
       <c r="D269">
-        <v>-0.02219844735931537</v>
+        <v>0.02253905130980341</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.03258843323415217</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C270">
-        <v>147.9620636173584</v>
+        <v>-0.03962751387917507</v>
       </c>
       <c r="D270">
-        <v>-0.03235952741275801</v>
+        <v>-0.02740747191450275</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.03962751387917507</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C271">
-        <v>148.6136315616093</v>
+        <v>-0.01618461535914761</v>
       </c>
       <c r="D271">
-        <v>-0.02941776446691421</v>
+        <v>-0.01119372242869812</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.01618461535914761</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C272">
-        <v>149.2651995058602</v>
+        <v>0.02904642101871246</v>
       </c>
       <c r="D272">
-        <v>-0.03542104402538959</v>
+        <v>0.02008929883198003</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.02904642101871246</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C273">
-        <v>149.9167674501111</v>
+        <v>-0.01777465499274999</v>
       </c>
       <c r="D273">
-        <v>-0.02871057860132256</v>
+        <v>-0.01229343730694601</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.01777465499274999</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C274">
-        <v>150.5683353943619</v>
+        <v>0.006263881389262593</v>
       </c>
       <c r="D274">
-        <v>-0.02438186840717538</v>
+        <v>0.004332271607435112</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.006263881389262593</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C275">
-        <v>151.2199033386128</v>
+        <v>0.01084321683637413</v>
       </c>
       <c r="D275">
-        <v>-0.01808010288647029</v>
+        <v>0.007499465190067426</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.01084321683637413</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C276">
-        <v>151.8714712828637</v>
+        <v>0.003532983710210047</v>
       </c>
       <c r="D276">
-        <v>-0.0003189463234817558</v>
+        <v>0.002443508116790124</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.003532983710210047</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C277">
-        <v>152.5230392271145</v>
+        <v>-0.009225281015805109</v>
       </c>
       <c r="D277">
-        <v>0.004398464156021607</v>
+        <v>-0.006380456546302453</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-0.009225281015805109</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C278">
-        <v>153.1746071713654</v>
+        <v>-0.02409591355193363</v>
       </c>
       <c r="D278">
-        <v>0.01071490734735921</v>
+        <v>-0.01666539253364473</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-0.02409591355193363</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C279">
-        <v>153.8261751156163</v>
+        <v>-0.02476141204000282</v>
       </c>
       <c r="D279">
-        <v>0.01426398093281452</v>
+        <v>-0.01712566948103319</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-0.02476141204000282</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C280">
-        <v>154.4777430598672</v>
+        <v>0.007517511779039587</v>
       </c>
       <c r="D280">
-        <v>0.02191027125131922</v>
+        <v>0.005199316656078354</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.007517511779039587</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C281">
-        <v>155.129311004118</v>
+        <v>0.009231424308822511</v>
       </c>
       <c r="D281">
-        <v>0.01022841024401354</v>
+        <v>0.00638470541569533</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.009231424308822511</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C282">
-        <v>155.7808789483689</v>
+        <v>-0.03575780233210413</v>
       </c>
       <c r="D282">
-        <v>0.01823389837895091</v>
+        <v>-0.0247310736204551</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-0.03575780233210413</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C283">
-        <v>156.4324468926198</v>
+        <v>0.004374805270519921</v>
       </c>
       <c r="D283">
-        <v>0.03501364056844337</v>
+        <v>0.003025734921165571</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.004374805270519921</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C284">
-        <v>157.0840148368706</v>
+        <v>0.01990926223437572</v>
       </c>
       <c r="D284">
-        <v>0.02120623435435978</v>
+        <v>0.01376979002999928</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.01990926223437572</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C285">
-        <v>157.7355827811215</v>
+        <v>-0.004781670034786245</v>
       </c>
       <c r="D285">
-        <v>0.01773369783448155</v>
+        <v>-0.0033071337147823</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-0.004781670034786245</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C286">
-        <v>158.3871507253724</v>
+        <v>-0.009063292232077913</v>
       </c>
       <c r="D286">
-        <v>-0.006373008624685469</v>
+        <v>-0.006268420675114463</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-0.009063292232077913</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C287">
-        <v>159.0387186696233</v>
+        <v>-0.009038519636216158</v>
       </c>
       <c r="D287">
-        <v>-0.007655575129903162</v>
+        <v>-0.006251287270596568</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-0.009038519636216158</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C288">
-        <v>159.4807716497557</v>
+        <v>0.009465201480265861</v>
       </c>
       <c r="D288">
-        <v>-0.003955699852068876</v>
+        <v>0.006132251274180867</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.009465201480265861</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C289">
-        <v>159.9228246298881</v>
+        <v>-0.0141775251700933</v>
       </c>
       <c r="D289">
-        <v>-0.0009998135899915261</v>
+        <v>-0.009185239951869883</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-0.0141775251700933</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C290">
-        <v>160.3648776100206</v>
+        <v>0.04055946637270047</v>
       </c>
       <c r="D290">
-        <v>-0.002983291482573118</v>
+        <v>0.02627739513655893</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.04055946637270047</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C291">
-        <v>160.806930590153</v>
+        <v>-0.01711114836017735</v>
       </c>
       <c r="D291">
-        <v>-0.003264058697508627</v>
+        <v>-0.01108585607534771</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.01711114836017735</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C292">
-        <v>161.2489835702855</v>
+        <v>0.00495389682416203</v>
       </c>
       <c r="D292">
-        <v>-0.02356259068408475</v>
+        <v>0.003209497460298635</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.00495389682416203</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C293">
-        <v>161.6910365504179</v>
+        <v>-0.01010945752148551</v>
       </c>
       <c r="D293">
-        <v>-0.01564095469131762</v>
+        <v>-0.006549647558655621</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>-0.01010945752148551</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C294">
-        <v>162.1330895305504</v>
+        <v>0.01130035083210945</v>
       </c>
       <c r="D294">
-        <v>-0.02196158771770468</v>
+        <v>0.007321195532220999</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.01130035083210945</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C295">
-        <v>162.5751425106828</v>
+        <v>0.007289500914341218</v>
       </c>
       <c r="D295">
-        <v>-0.0275633921987266</v>
+        <v>0.004722672978838265</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.007289500914341218</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C296">
-        <v>163.0171954908153</v>
+        <v>0.01061210463737083</v>
       </c>
       <c r="D296">
-        <v>-0.03485022841328246</v>
+        <v>0.006875299202022915</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.01061210463737083</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C297">
-        <v>163.4592484709477</v>
+        <v>0.02990959459025877</v>
       </c>
       <c r="D297">
-        <v>-0.04099870522052586</v>
+        <v>0.01937762760980295</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.02990959459025877</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C298">
-        <v>163.9013014510801</v>
+        <v>0.007944067969751778</v>
       </c>
       <c r="D298">
-        <v>-0.03003089716386719</v>
+        <v>0.005146749494055296</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.007944067969751778</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C299">
-        <v>164.3433544312126</v>
+        <v>0.01063682167517133</v>
       </c>
       <c r="D299">
-        <v>-0.02760477827122999</v>
+        <v>0.006891312710754035</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.01063682167517133</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C300">
-        <v>164.785407411345</v>
+        <v>0.005976601339868104</v>
       </c>
       <c r="D300">
-        <v>-0.01416228326542978</v>
+        <v>0.003872080405059463</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.005976601339868104</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C301">
-        <v>165.2274603914775</v>
+        <v>0.01287626978202905</v>
       </c>
       <c r="D301">
-        <v>-0.0128083793528598</v>
+        <v>0.008342191335511472</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.01287626978202905</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C302">
-        <v>165.6695133716099</v>
+        <v>-0.01967212695576137</v>
       </c>
       <c r="D302">
-        <v>-0.02044666716915339</v>
+        <v>-0.01274504571739207</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>-0.01967212695576137</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C303">
-        <v>166.1115663517424</v>
+        <v>0.01348115500046099</v>
       </c>
       <c r="D303">
-        <v>-0.02251529271694847</v>
+        <v>0.008734080315286073</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.01348115500046099</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C304">
-        <v>166.7631342959932</v>
+        <v>0.0260509544398877</v>
       </c>
       <c r="D304">
-        <v>-0.0172453200530798</v>
+        <v>0.01801755225761026</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.0260509544398877</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C305">
-        <v>167.4147022402441</v>
+        <v>-0.02143633115181931</v>
       </c>
       <c r="D305">
-        <v>-0.0250648856219116</v>
+        <v>-0.01482595263949217</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>-0.02143633115181931</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C306">
-        <v>168.066270184495</v>
+        <v>-0.005391196697100753</v>
       </c>
       <c r="D306">
-        <v>-0.01295386558562352</v>
+        <v>-0.003728699017351143</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>-0.005391196697100753</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C307">
-        <v>168.5083231646274</v>
+        <v>-0.04059543163999546</v>
       </c>
       <c r="D307">
-        <v>-0.01271125572480415</v>
+        <v>-0.02630069607279951</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>-0.04059543163999546</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C308">
-        <v>168.9503761447599</v>
+        <v>-0.002159828053430068</v>
       </c>
       <c r="D308">
-        <v>-0.006958193367693309</v>
+        <v>-0.001399294918367242</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>-0.002159828053430068</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C309">
-        <v>169.3924291248923</v>
+        <v>0.006230549750636527</v>
       </c>
       <c r="D309">
-        <v>-0.009787165414869212</v>
+        <v>0.004036606798793146</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.006230549750636527</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C310">
-        <v>170.0439970691432</v>
+        <v>0.004589084711390079</v>
       </c>
       <c r="D310">
-        <v>-0.001315728970471998</v>
+        <v>0.003173936440327501</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.004589084711390079</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C311">
-        <v>170.6955650133941</v>
+        <v>-0.003079397265383754</v>
       </c>
       <c r="D311">
-        <v>0.01341328324315296</v>
+        <v>-0.002129795331645941</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>-0.003079397265383754</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C312">
-        <v>171.3471329576449</v>
+        <v>-0.0004358978726788365</v>
       </c>
       <c r="D312">
-        <v>0.004481807679115851</v>
+        <v>-0.0003014788850863284</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>-0.0004358978726788365</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C313">
-        <v>171.9987009018958</v>
+        <v>-0.0315139604653778</v>
       </c>
       <c r="D313">
-        <v>0.007501257895068118</v>
+        <v>-0.02179591656956028</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>-0.0315139604653778</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C314">
-        <v>172.4407538820282</v>
+        <v>0.01333994890450985</v>
       </c>
       <c r="D314">
-        <v>0.01653577096137271</v>
+        <v>0.00864259665657856</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.01333994890450985</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C315">
-        <v>172.8828068621607</v>
+        <v>-0.01064387731185157</v>
       </c>
       <c r="D315">
-        <v>0.01727709768490737</v>
+        <v>-0.006895883869340863</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>-0.01064387731185157</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C316">
-        <v>173.3248598422931</v>
+        <v>-0.009433377855043723</v>
       </c>
       <c r="D316">
-        <v>0.01313608456846456</v>
+        <v>-0.006111633597238186</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>-0.009433377855043723</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C317">
-        <v>173.7669128224256</v>
+        <v>-0.01227095297820568</v>
       </c>
       <c r="D317">
-        <v>0.004860701629909817</v>
+        <v>-0.007950022743087103</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>-0.01227095297820568</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C318">
-        <v>174.208965802558</v>
+        <v>-0.01035396811013278</v>
       </c>
       <c r="D318">
-        <v>0.01494437263491622</v>
+        <v>-0.006708059439470739</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>-0.01035396811013278</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C319">
-        <v>174.6510187826905</v>
+        <v>0.01846966954854867</v>
       </c>
       <c r="D319">
-        <v>0.01778494979270984</v>
+        <v>0.01196600567446197</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.01846966954854867</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C320">
-        <v>175.0930717628229</v>
+        <v>0.004085557843556131</v>
       </c>
       <c r="D320">
-        <v>0.0176580238076184</v>
+        <v>0.002646923823451776</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.004085557843556131</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C321">
-        <v>175.5351247429554</v>
+        <v>0.02263701547132868</v>
       </c>
       <c r="D321">
-        <v>0.01896840354871469</v>
+        <v>0.01466591781032095</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.02263701547132868</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C322">
-        <v>175.9771777230878</v>
+        <v>0.002279959471981563</v>
       </c>
       <c r="D322">
-        <v>0.01149365215422514</v>
+        <v>0.001477124856379388</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.002279959471981563</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C323">
-        <v>176.4192307032203</v>
+        <v>-0.01286279365529186</v>
       </c>
       <c r="D323">
-        <v>0.01846147182022956</v>
+        <v>-0.008333460512873682</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>-0.01286279365529186</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C324">
-        <v>176.8612836833527</v>
+        <v>-0.003483542936755235</v>
       </c>
       <c r="D324">
-        <v>0.01025376036207357</v>
+        <v>-0.002256894441932263</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>-0.003483542936755235</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C325">
-        <v>177.3033366634851</v>
+        <v>0.008874576681932922</v>
       </c>
       <c r="D325">
-        <v>0.01362588066809766</v>
+        <v>0.005749601239768895</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.008874576681932922</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C326">
-        <v>177.7453896436176</v>
+        <v>-0.01316806342009702</v>
       </c>
       <c r="D326">
-        <v>0.0252720508452632</v>
+        <v>-0.008531236641369021</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>-0.01316806342009702</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C327">
-        <v>178.3969575878685</v>
+        <v>0.01880265069766551</v>
       </c>
       <c r="D327">
-        <v>0.02464441874803367</v>
+        <v>0.01300442723925937</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.01880265069766551</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C328">
-        <v>178.8390105680009</v>
+        <v>0.0004085523684773662</v>
       </c>
       <c r="D328">
-        <v>0.01057464791222698</v>
+        <v>0.0002646901692888812</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.0004085523684773662</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C329">
-        <v>179.2810635481333</v>
+        <v>0.009688094474221032</v>
       </c>
       <c r="D329">
-        <v>0.02000216821178248</v>
+        <v>0.006276657692685251</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.009688094474221032</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C330">
-        <v>179.9326314923842</v>
+        <v>-0.004392047331862159</v>
       </c>
       <c r="D330">
-        <v>0.01750991228790309</v>
+        <v>-0.003037660002144064</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>-0.004392047331862159</v>
+        <v>0.6515679442508711</v>
       </c>
       <c r="C331">
-        <v>180.5841994366351</v>
+        <v>0.01315210939245492</v>
       </c>
       <c r="D331">
-        <v>0.01153636506073009</v>
+        <v>0.009096358401116028</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.01315210939245492</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C332">
-        <v>181.2657470556827</v>
+        <v>0.0225671612538596</v>
       </c>
       <c r="D332">
-        <v>0.01059603480721132</v>
+        <v>0.01574455822232265</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.0225671612538596</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C333">
-        <v>181.9472946747303</v>
+        <v>-0.01368442407170267</v>
       </c>
       <c r="D333">
-        <v>0.007401635191472978</v>
+        <v>-0.009547289050324285</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>-0.01368442407170267</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C334">
-        <v>182.628842293778</v>
+        <v>0.00462627221249523</v>
       </c>
       <c r="D334">
-        <v>0.00533518583848447</v>
+        <v>0.003227637334735097</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.00462627221249523</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C335">
-        <v>183.0708952739104</v>
+        <v>0.01521402179949582</v>
       </c>
       <c r="D335">
-        <v>-0.0004685215403389866</v>
+        <v>0.009856758438781086</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.01521402179949582</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C336">
-        <v>183.752442892958</v>
+        <v>0.001135829033825253</v>
       </c>
       <c r="D336">
-        <v>0.0003792631593522864</v>
+        <v>0.0007924402255338016</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.001135829033825253</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C337">
-        <v>184.4339905120056</v>
+        <v>-0.006344682820390801</v>
       </c>
       <c r="D337">
-        <v>0.006433801638196567</v>
+        <v>-0.004426530521233749</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>-0.006344682820390801</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C338">
-        <v>185.1155381310533</v>
+        <v>-0.01267918706992788</v>
       </c>
       <c r="D338">
-        <v>0.0004009867549413246</v>
+        <v>-0.008845959701735106</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>-0.01267918706992788</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C339">
-        <v>185.7970857501009</v>
+        <v>0.01544976854526237</v>
       </c>
       <c r="D339">
-        <v>-0.007510581906935806</v>
+        <v>0.01077892685065517</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.01544976854526237</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C340">
-        <v>186.4786333691485</v>
+        <v>0.004352210578972837</v>
       </c>
       <c r="D340">
-        <v>-0.005578486374483074</v>
+        <v>0.003036431214613977</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.004352210578972837</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C341">
-        <v>187.1601809881961</v>
+        <v>-0.0001944705545300351</v>
       </c>
       <c r="D341">
-        <v>-0.003848850138349893</v>
+        <v>-0.0001356773647284436</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>-0.0001944705545300351</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C342">
-        <v>187.8417286072437</v>
+        <v>0.002007707678710169</v>
       </c>
       <c r="D342">
-        <v>-0.001753164396042349</v>
+        <v>0.001400728699780538</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.002007707678710169</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C343">
-        <v>188.5232762262914</v>
+        <v>-0.01145249373178725</v>
       </c>
       <c r="D343">
-        <v>-0.009205870070389643</v>
+        <v>-0.007990125666340546</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>-0.01145249373178725</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C344">
-        <v>189.204823845339</v>
+        <v>0.0106757946636149</v>
       </c>
       <c r="D344">
-        <v>0.01087400068731469</v>
+        <v>0.007448241662300303</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.0106757946636149</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C345">
-        <v>189.8863714643866</v>
+        <v>-0.01257550372794292</v>
       </c>
       <c r="D345">
-        <v>0.002613003953904521</v>
+        <v>-0.008773622361818771</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>-0.01257550372794292</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C346">
-        <v>190.5679190834342</v>
+        <v>0.005166618209676344</v>
       </c>
       <c r="D346">
-        <v>-0.001034323748283947</v>
+        <v>0.003604623563402294</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.005166618209676344</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C347">
-        <v>191.2494667024818</v>
+        <v>0.01784376281084654</v>
       </c>
       <c r="D347">
-        <v>-0.004921122556460933</v>
+        <v>0.01244915828448029</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.01784376281084654</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C348">
-        <v>191.9310143215295</v>
+        <v>-0.0009616310001545614</v>
       </c>
       <c r="D348">
-        <v>0.00324054449130981</v>
+        <v>-0.0006709065043674652</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>-0.0009616310001545614</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C349">
-        <v>192.6125619405771</v>
+        <v>-0.0215570998687058</v>
       </c>
       <c r="D349">
-        <v>-0.008434738619892471</v>
+        <v>-0.01503986301906778</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>-0.0215570998687058</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C350">
-        <v>193.2941095596247</v>
+        <v>0.01444444255584898</v>
       </c>
       <c r="D350">
-        <v>-0.006258458595621564</v>
+        <v>0.01007753541756006</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.01444444255584898</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C351">
-        <v>193.9756571786723</v>
+        <v>-0.003818527712811992</v>
       </c>
       <c r="D351">
-        <v>0.002201529306193654</v>
+        <v>-0.002664093690013342</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>-0.003818527712811992</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C352">
-        <v>194.6572047977199</v>
+        <v>-0.009152413045625529</v>
       </c>
       <c r="D352">
-        <v>0.006971664117842486</v>
+        <v>-0.00638541544727746</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>-0.009152413045625529</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C353">
-        <v>195.3387524167676</v>
+        <v>-0.001440733713521603</v>
       </c>
       <c r="D353">
-        <v>0.005572298651956078</v>
+        <v>-0.001005164787020984</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>-0.001440733713521603</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C354">
-        <v>196.0203000358152</v>
+        <v>-0.004894322184820332</v>
       </c>
       <c r="D354">
-        <v>0.0001837182550613152</v>
+        <v>-0.003414649265402396</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>-0.004894322184820332</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C355">
-        <v>196.7018476548628</v>
+        <v>-0.00316612513422232</v>
       </c>
       <c r="D355">
-        <v>-0.01163537449787538</v>
+        <v>-0.002208928316422467</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>-0.00316612513422232</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C356">
-        <v>197.3833952739104</v>
+        <v>-0.008892191709024999</v>
       </c>
       <c r="D356">
-        <v>-0.01543019830146143</v>
+        <v>-0.006203865364894061</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>-0.008892191709024999</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C357">
-        <v>198.064942892958</v>
+        <v>0.001298939382288644</v>
       </c>
       <c r="D357">
-        <v>-0.01125931430514537</v>
+        <v>0.000906238339047347</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.001298939382288644</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C358">
-        <v>198.7464905120057</v>
+        <v>0.009276504370292038</v>
       </c>
       <c r="D358">
-        <v>-0.02182682706137993</v>
+        <v>0.006471990939166714</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.009276504370292038</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C359">
-        <v>199.4280381310533</v>
+        <v>-0.009243220408166053</v>
       </c>
       <c r="D359">
-        <v>-0.01425166359343849</v>
+        <v>-0.006448769530250138</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>-0.009243220408166053</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C360">
-        <v>200.1095857501009</v>
+        <v>-0.01212176642764984</v>
       </c>
       <c r="D360">
-        <v>-0.003826985359948324</v>
+        <v>-0.008457060909461441</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>-0.01212176642764984</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C361">
-        <v>200.7911333691485</v>
+        <v>0.002960273968568572</v>
       </c>
       <c r="D361">
-        <v>-0.002123785454833928</v>
+        <v>0.002065310976770848</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.002960273968568572</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C362">
-        <v>201.4726809881961</v>
+        <v>0.002650074511801215</v>
       </c>
       <c r="D362">
-        <v>-0.002625549164851667</v>
+        <v>0.001848892378407209</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.002650074511801215</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C363">
-        <v>202.1542286072438</v>
+        <v>0.00321091987691613</v>
       </c>
       <c r="D363">
-        <v>0.003456797953283736</v>
+        <v>0.00224018051630986</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.00321091987691613</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C364">
-        <v>202.8357762262914</v>
+        <v>-0.01141871622422652</v>
       </c>
       <c r="D364">
-        <v>0.01010395883106907</v>
+        <v>-0.007966559922806725</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>-0.01141871622422652</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C365">
-        <v>203.517323845339</v>
+        <v>0.03076551738660349</v>
       </c>
       <c r="D365">
-        <v>0.01746758853666511</v>
+        <v>0.02146435142126768</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.03076551738660349</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C366">
-        <v>204.1988714643866</v>
+        <v>-0.01265714514297311</v>
       </c>
       <c r="D366">
-        <v>0.02566923923042596</v>
+        <v>-0.008830581586678118</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>-0.01265714514297311</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C367">
-        <v>204.8804190834342</v>
+        <v>-0.005588279187168865</v>
       </c>
       <c r="D367">
-        <v>0.03122536676136028</v>
+        <v>-0.003898806147358309</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>-0.005588279187168865</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C368">
-        <v>205.5619667024819</v>
+        <v>-0.005955186552449199</v>
       </c>
       <c r="D368">
-        <v>0.03533590298308301</v>
+        <v>-0.00415478847095992</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>-0.005955186552449199</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C369">
-        <v>206.2435143215295</v>
+        <v>0.01250495645573402</v>
       </c>
       <c r="D369">
-        <v>0.04698874681187777</v>
+        <v>0.008724403249932065</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.01250495645573402</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C370">
-        <v>206.9250619405771</v>
+        <v>-0.01788836840064789</v>
       </c>
       <c r="D370">
-        <v>0.04672574696705416</v>
+        <v>-0.01248027851700614</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>-0.01788836840064789</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C371">
-        <v>207.6066095596247</v>
+        <v>0.003334402981609585</v>
       </c>
       <c r="D371">
-        <v>0.05114219942899904</v>
+        <v>0.002326331667952239</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.003334402981609585</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C372">
-        <v>208.2881571786723</v>
+        <v>0.0129620308827878</v>
       </c>
       <c r="D372">
-        <v>0.04652336725454474</v>
+        <v>0.009043292934271616</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.0129620308827878</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C373">
-        <v>208.96970479772</v>
+        <v>0.007308596118723365</v>
       </c>
       <c r="D373">
-        <v>0.04553079854900846</v>
+        <v>0.005099029329397871</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.007308596118723365</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C374">
-        <v>209.6512524167676</v>
+        <v>-0.002144047792460135</v>
       </c>
       <c r="D374">
-        <v>0.04516580204348738</v>
+        <v>-0.001495849873189414</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>-0.002144047792460135</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C375">
-        <v>210.3328000358152</v>
+        <v>-0.008256151938934586</v>
       </c>
       <c r="D375">
-        <v>0.05220654489289681</v>
+        <v>-0.005760115923869948</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>-0.008256151938934586</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C376">
-        <v>211.0143476548628</v>
+        <v>-0.01810870737028214</v>
       </c>
       <c r="D376">
-        <v>0.04660432667011201</v>
+        <v>-0.01263400364428415</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>-0.01810870737028214</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C377">
-        <v>211.6958952739105</v>
+        <v>-0.005814266392303757</v>
       </c>
       <c r="D377">
-        <v>0.05029752141261082</v>
+        <v>-0.004056471910841864</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>-0.005814266392303757</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C378">
-        <v>212.3774428929581</v>
+        <v>0.006390449702318612</v>
       </c>
       <c r="D378">
-        <v>0.04892762552734344</v>
+        <v>0.004458460958964076</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.006390449702318612</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C379">
-        <v>213.0589905120057</v>
+        <v>-0.01619109013987785</v>
       </c>
       <c r="D379">
-        <v>0.05835768025459431</v>
+        <v>-0.01129612885389306</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>-0.01619109013987785</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C380">
-        <v>213.7405381310533</v>
+        <v>0.01160634080724332</v>
       </c>
       <c r="D380">
-        <v>0.05986661735290584</v>
+        <v>0.008097461020114291</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.01160634080724332</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C381">
-        <v>214.4220857501009</v>
+        <v>0.01597224520576823</v>
       </c>
       <c r="D381">
-        <v>0.05952939471340273</v>
+        <v>0.01114344607877619</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.01597224520576823</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C382">
-        <v>215.1036333691486</v>
+        <v>0.00260956989842942</v>
       </c>
       <c r="D382">
-        <v>0.05905301887500707</v>
+        <v>0.001820633297154983</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.00260956989842942</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C383">
-        <v>215.7851809881962</v>
+        <v>-0.0007687808517689021</v>
       </c>
       <c r="D383">
-        <v>0.03958439318113514</v>
+        <v>-0.0005363596575006589</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>-0.0007687808517689021</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C384">
-        <v>216.4667286072438</v>
+        <v>0.00931911157558396</v>
       </c>
       <c r="D384">
-        <v>0.04138217076546548</v>
+        <v>0.00650171694754069</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.00931911157558396</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C385">
-        <v>217.1482762262914</v>
+        <v>0.01018449501118379</v>
       </c>
       <c r="D385">
-        <v>0.03523293960316426</v>
+        <v>0.007105473872621592</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.01018449501118379</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C386">
-        <v>217.829823845339</v>
+        <v>0.011282237842547</v>
       </c>
       <c r="D386">
-        <v>0.04963307808792333</v>
+        <v>0.007871342283234358</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.011282237842547</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C387">
-        <v>218.5113714643867</v>
+        <v>0.01256621768449051</v>
       </c>
       <c r="D387">
-        <v>0.05907287481171805</v>
+        <v>0.008767143715694575</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.01256621768449051</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C388">
-        <v>219.1929190834343</v>
+        <v>0.008512860476931117</v>
       </c>
       <c r="D388">
-        <v>0.04858470182334648</v>
+        <v>0.005939215212308916</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.008512860476931117</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C389">
-        <v>219.8744667024819</v>
+        <v>0.006297987428487417</v>
       </c>
       <c r="D389">
-        <v>0.05470994080178288</v>
+        <v>0.00439395228473042</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.006297987428487417</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C390">
-        <v>220.5560143215295</v>
+        <v>0.01785398789385173</v>
       </c>
       <c r="D390">
-        <v>0.05320905579228093</v>
+        <v>0.0124562920756068</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.01785398789385173</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C391">
-        <v>221.2375619405771</v>
+        <v>-0.0004029570905226265</v>
       </c>
       <c r="D391">
-        <v>0.064982871000047</v>
+        <v>-0.0002811333380154833</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>-0.0004029570905226265</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C392">
-        <v>221.9191095596248</v>
+        <v>0.006766699180717595</v>
       </c>
       <c r="D392">
-        <v>0.07420479284195164</v>
+        <v>0.004720961047129048</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.006766699180717595</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C393">
-        <v>222.6006571786724</v>
+        <v>-0.007076776702581888</v>
       </c>
       <c r="D393">
-        <v>0.0764513900109863</v>
+        <v>-0.004937294574483577</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>-0.007076776702581888</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C394">
-        <v>223.28220479772</v>
+        <v>-0.00152077123085359</v>
       </c>
       <c r="D394">
-        <v>0.06508124684884485</v>
+        <v>-0.001061005011559111</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>-0.00152077123085359</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C395">
-        <v>223.9637524167676</v>
+        <v>-0.0005592320026437392</v>
       </c>
       <c r="D395">
-        <v>0.07107380027896065</v>
+        <v>-0.0003901625342400817</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>-0.0005592320026437392</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C396">
-        <v>224.6453000358152</v>
+        <v>0.01078752443986719</v>
       </c>
       <c r="D396">
-        <v>0.07743667600177259</v>
+        <v>0.007526192803233919</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.01078752443986719</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C397">
-        <v>225.3268476548629</v>
+        <v>-0.008583478659617505</v>
       </c>
       <c r="D397">
-        <v>0.06415592793971749</v>
+        <v>-0.005988483796706977</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>-0.008583478659617505</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C398">
-        <v>226.0083952739105</v>
+        <v>0.005658554700550766</v>
       </c>
       <c r="D398">
-        <v>0.05140342599546929</v>
+        <v>0.003947835659736864</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.005658554700550766</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C399">
-        <v>226.6899428929581</v>
+        <v>-0.002098895764050646</v>
       </c>
       <c r="D399">
-        <v>0.0446585235926086</v>
+        <v>-0.001464348403768771</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>-0.002098895764050646</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C400">
-        <v>227.3714905120057</v>
+        <v>0.01444832569734267</v>
       </c>
       <c r="D400">
-        <v>0.04496293797334501</v>
+        <v>0.01008024459070971</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.01444832569734267</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C401">
-        <v>228.0530381310533</v>
+        <v>0.002311928751612236</v>
       </c>
       <c r="D401">
-        <v>0.0448614822880724</v>
+        <v>0.001612976325473595</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.002311928751612236</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C402">
-        <v>228.734585750101</v>
+        <v>-0.0005166780754706224</v>
       </c>
       <c r="D402">
-        <v>0.05208614004057867</v>
+        <v>-0.0003604736967106815</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>-0.0005166780754706224</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C403">
-        <v>229.4161333691486</v>
+        <v>-0.0007298826429495975</v>
       </c>
       <c r="D403">
-        <v>0.05286837483057404</v>
+        <v>-0.000509221325540769</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>-0.0007298826429495975</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C404">
-        <v>230.0976809881962</v>
+        <v>-0.02982899389670024</v>
       </c>
       <c r="D404">
-        <v>0.0465436080499319</v>
+        <v>-0.02081096181468468</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>-0.02982899389670024</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C405">
-        <v>230.7792286072438</v>
+        <v>0.002754477765089192</v>
       </c>
       <c r="D405">
-        <v>0.03689894980349492</v>
+        <v>0.001921731982888314</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.002754477765089192</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C406">
-        <v>231.4607762262914</v>
+        <v>-0.009421588441520967</v>
       </c>
       <c r="D406">
-        <v>0.04174928874699104</v>
+        <v>-0.0065732125585321</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>-0.009421588441520967</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C407">
-        <v>232.1423238453391</v>
+        <v>0.02206327502144756</v>
       </c>
       <c r="D407">
-        <v>0.04609816548610906</v>
+        <v>0.01539300908265044</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.02206327502144756</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C408">
-        <v>232.8238714643867</v>
+        <v>0.01446325196692211</v>
       </c>
       <c r="D408">
-        <v>0.0388679893061411</v>
+        <v>0.01009065828509475</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.01446325196692211</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C409">
-        <v>233.5054190834343</v>
+        <v>-0.0160695291479227</v>
       </c>
       <c r="D409">
-        <v>0.03203299145826986</v>
+        <v>-0.01121131871344734</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>-0.0160695291479227</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C410">
-        <v>234.1869667024819</v>
+        <v>0.009384828645666587</v>
       </c>
       <c r="D410">
-        <v>0.03562411406354785</v>
+        <v>0.006547566145163605</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.009384828645666587</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C411">
-        <v>234.8685143215295</v>
+        <v>-0.002299591686236724</v>
       </c>
       <c r="D411">
-        <v>0.03362460415201318</v>
+        <v>-0.001604369055737171</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>-0.002299591686236724</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C412">
-        <v>235.5500619405772</v>
+        <v>0.01803933505608857</v>
       </c>
       <c r="D412">
-        <v>0.03195020413390198</v>
+        <v>0.01258560427195942</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.01803933505608857</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C413">
-        <v>236.2316095596248</v>
+        <v>0.01412943341062878</v>
       </c>
       <c r="D413">
-        <v>0.02860926669383038</v>
+        <v>0.009857761216822457</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.01412943341062878</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C414">
-        <v>236.9131571786724</v>
+        <v>0.003442139897146035</v>
       </c>
       <c r="D414">
-        <v>0.02958634017272929</v>
+        <v>0.002401497087309845</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.003442139897146035</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C415">
-        <v>237.59470479772</v>
+        <v>-0.01742084604846461</v>
       </c>
       <c r="D415">
-        <v>0.02610795588730745</v>
+        <v>-0.01215409957002281</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>-0.01742084604846461</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C416">
-        <v>238.2762524167676</v>
+        <v>0.00918153353520168</v>
       </c>
       <c r="D416">
-        <v>0.03862218398636741</v>
+        <v>0.006405732102900942</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.00918153353520168</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C417">
-        <v>238.9578000358153</v>
+        <v>0.009748925480701054</v>
       </c>
       <c r="D417">
-        <v>0.03110102805942288</v>
+        <v>0.006801587630333041</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.009748925480701054</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C418">
-        <v>239.6393476548629</v>
+        <v>-0.02034819299090795</v>
       </c>
       <c r="D418">
-        <v>0.03578874898609517</v>
+        <v>-0.01419643816342276</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>-0.02034819299090795</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C419">
-        <v>240.3208952739105</v>
+        <v>-0.01953883692891445</v>
       </c>
       <c r="D419">
-        <v>0.03006395000155795</v>
+        <v>-0.01363177017096681</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>-0.01953883692891445</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C420">
-        <v>241.0024428929581</v>
+        <v>-0.01033425038687241</v>
       </c>
       <c r="D420">
-        <v>0.02177053569938757</v>
+        <v>-0.007209954547222702</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>-0.01033425038687241</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C421">
-        <v>241.6839905120057</v>
+        <v>0.0004664106674932</v>
       </c>
       <c r="D421">
-        <v>0.02033936971373891</v>
+        <v>0.0003254033516777893</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.0004664106674932</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C422">
-        <v>242.3655381310534</v>
+        <v>-0.0001554460527604107</v>
       </c>
       <c r="D422">
-        <v>0.0190528539037032</v>
+        <v>-0.0001084509212561215</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>-0.0001554460527604107</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C423">
-        <v>243.047085750101</v>
+        <v>0.01106931097211916</v>
       </c>
       <c r="D423">
-        <v>0.02355509131850545</v>
+        <v>0.007722788396866626</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.01106931097211916</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C424">
-        <v>243.7286333691486</v>
+        <v>0.001198506620007755</v>
       </c>
       <c r="D424">
-        <v>0.02662985340876942</v>
+        <v>0.0008361688493418262</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.001198506620007755</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C425">
-        <v>244.4101809881962</v>
+        <v>-0.00969053659279151</v>
       </c>
       <c r="D425">
-        <v>0.02629588707439169</v>
+        <v>-0.006760851126752145</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>-0.00969053659279151</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C426">
-        <v>245.0917286072439</v>
+        <v>-0.01477713201190589</v>
       </c>
       <c r="D426">
-        <v>0.02937857466272572</v>
+        <v>-0.01030964474012472</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>-0.01477713201190589</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C427">
-        <v>245.7732762262915</v>
+        <v>0.007431481452130129</v>
       </c>
       <c r="D427">
-        <v>0.03872005147189458</v>
+        <v>0.005184763430587111</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.007431481452130129</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C428">
-        <v>246.4548238453391</v>
+        <v>0.006663162554380264</v>
       </c>
       <c r="D428">
-        <v>0.02304916387829447</v>
+        <v>0.004648726067143155</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.006663162554380264</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C429">
-        <v>247.1363714643867</v>
+        <v>-0.01107776607016575</v>
       </c>
       <c r="D429">
-        <v>0.0232402221023524</v>
+        <v>-0.007728687312639526</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>-0.01107776607016575</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C430">
-        <v>247.8179190834343</v>
+        <v>-0.01047229076638345</v>
       </c>
       <c r="D430">
-        <v>0.03767690771044077</v>
+        <v>-0.007306261954600818</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>-0.01047229076638345</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C431">
-        <v>248.499466702482</v>
+        <v>0.005502164146535371</v>
       </c>
       <c r="D431">
-        <v>0.02971879063419658</v>
+        <v>0.00383872578298196</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.005502164146535371</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C432">
-        <v>249.1810143215296</v>
+        <v>-0.003063563390934831</v>
       </c>
       <c r="D432">
-        <v>0.03536395887484726</v>
+        <v>-0.002137373488572925</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>-0.003063563390934831</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C433">
-        <v>249.8625619405772</v>
+        <v>-0.002565443945876211</v>
       </c>
       <c r="D433">
-        <v>0.0292617355961818</v>
+        <v>-0.00178984769584367</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>-0.002565443945876211</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C434">
-        <v>250.5441095596248</v>
+        <v>-0.005118841158907372</v>
       </c>
       <c r="D434">
-        <v>0.02586536563139972</v>
+        <v>-0.003571290679879149</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>-0.005118841158907372</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C435">
-        <v>251.2256571786724</v>
+        <v>0.001497030108698283</v>
       </c>
       <c r="D435">
-        <v>0.03840405488581903</v>
+        <v>0.001044441409436864</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.001497030108698283</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C436">
-        <v>251.9072047977201</v>
+        <v>-0.00532943132462016</v>
       </c>
       <c r="D436">
-        <v>0.03596076991647297</v>
+        <v>-0.003718214304335747</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>-0.00532943132462016</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C437">
-        <v>252.5887524167677</v>
+        <v>0.01917376395531978</v>
       </c>
       <c r="D437">
-        <v>0.04222511816548115</v>
+        <v>0.01337706765772206</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.01917376395531978</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C438">
-        <v>253.2703000358153</v>
+        <v>-0.01152359276759718</v>
       </c>
       <c r="D438">
-        <v>0.03999651922985809</v>
+        <v>-0.008039729730239765</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>-0.01152359276759718</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C439">
-        <v>253.9518476548629</v>
+        <v>0.007182325096278142</v>
       </c>
       <c r="D439">
-        <v>0.043650743141362</v>
+        <v>0.00501093311550916</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.007182325096278142</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C440">
-        <v>254.6333952739105</v>
+        <v>-0.008771291649176227</v>
       </c>
       <c r="D440">
-        <v>0.03999651922985809</v>
+        <v>-0.006119516340665516</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>-0.008771291649176227</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C441">
-        <v>255.3149428929582</v>
+        <v>-0.01270681395246687</v>
       </c>
       <c r="D441">
-        <v>0.04098184848671275</v>
+        <v>-0.008865234304142709</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>-0.01270681395246687</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C442">
-        <v>255.9964905120058</v>
+        <v>-0.002192771185924869</v>
       </c>
       <c r="D442">
-        <v>0.05244318979019608</v>
+        <v>-0.001529842996939679</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>-0.002192771185924869</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C443">
-        <v>256.6780381310534</v>
+        <v>-0.001971144386305745</v>
       </c>
       <c r="D443">
-        <v>0.04651017020029814</v>
+        <v>-0.001375219382078349</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>-0.001971144386305745</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C444">
-        <v>257.359585750101</v>
+        <v>0.006898135208891709</v>
       </c>
       <c r="D444">
-        <v>0.03029816560163412</v>
+        <v>0.004812660759592629</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.006898135208891709</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C445">
-        <v>258.0411333691486</v>
+        <v>0.004711018695744862</v>
       </c>
       <c r="D445">
-        <v>0.03742324784056467</v>
+        <v>0.003286762889989979</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.004711018695744862</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C446">
-        <v>258.7226809881961</v>
+        <v>-0.0005116889043170758</v>
       </c>
       <c r="D446">
-        <v>0.03414392267653719</v>
+        <v>-0.0003569928736322044</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>-0.0005116889043170758</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C447">
-        <v>259.4042286072437</v>
+        <v>0.004723161804214726</v>
       </c>
       <c r="D447">
-        <v>0.03697458188294789</v>
+        <v>0.003295234840721977</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.004723161804214726</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C448">
-        <v>259.8462815873762</v>
+        <v>0.01573094540581721</v>
       </c>
       <c r="D448">
-        <v>0.04172441212114002</v>
+        <v>0.01019165943905324</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.01573094540581721</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C449">
-        <v>260.2883345675087</v>
+        <v>-0.02638960436680193</v>
       </c>
       <c r="D449">
-        <v>0.03994069695450339</v>
+        <v>-0.01709711994412872</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>-0.02638960436680193</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C450">
-        <v>260.7303875476412</v>
+        <v>0.0003217399725317094</v>
       </c>
       <c r="D450">
-        <v>0.04420525626511065</v>
+        <v>0.000208446736250254</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.0003217399725317094</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C451">
-        <v>261.1724405277736</v>
+        <v>0.0243112216388397</v>
       </c>
       <c r="D451">
-        <v>0.04739288526579746</v>
+        <v>0.01575059127716326</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.0243112216388397</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C452">
-        <v>261.6144935079061</v>
+        <v>-0.01340138265253987</v>
       </c>
       <c r="D452">
-        <v>0.04274392333155881</v>
+        <v>-0.008682397941360534</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>-0.01340138265253987</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C453">
-        <v>262.2960411269537</v>
+        <v>0.00864928483622851</v>
       </c>
       <c r="D453">
-        <v>0.04335479094930476</v>
+        <v>0.006034395161782335</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.00864928483622851</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C454">
-        <v>262.9775887460013</v>
+        <v>-0.009349564976890434</v>
       </c>
       <c r="D454">
-        <v>0.04566300187619957</v>
+        <v>-0.006522963543182202</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>-0.009349564976890434</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C455">
-        <v>263.6591363650489</v>
+        <v>-0.005203772497527126</v>
       </c>
       <c r="D455">
-        <v>0.04137181017130236</v>
+        <v>-0.003630545204219016</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>-0.005203772497527126</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C456">
-        <v>264.3406839840965</v>
+        <v>0.01921124228919879</v>
       </c>
       <c r="D456">
-        <v>0.03667528280661153</v>
+        <v>0.01340321537755247</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.01921124228919879</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C457">
-        <v>265.0222316031441</v>
+        <v>-0.003743496515085987</v>
       </c>
       <c r="D457">
-        <v>0.02986300889362741</v>
+        <v>-0.002611746252610879</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>-0.003743496515085987</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C458">
-        <v>265.7037792221917</v>
+        <v>0.009597965908055173</v>
       </c>
       <c r="D458">
-        <v>0.03054398275854396</v>
+        <v>0.006696266816873016</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.009597965908055173</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C459">
-        <v>266.1458322023241</v>
+        <v>-0.003752936382964478</v>
       </c>
       <c r="D459">
-        <v>0.03378678938539396</v>
+        <v>-0.002431427261673804</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>-0.003752936382964478</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C460">
-        <v>266.5878851824566</v>
+        <v>0.006153673345961508</v>
       </c>
       <c r="D460">
-        <v>0.02474975093036688</v>
+        <v>0.003986800629161606</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.006153673345961508</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C461">
-        <v>267.0299381625891</v>
+        <v>-0.006153673345961508</v>
       </c>
       <c r="D461">
-        <v>0.013105690385218</v>
+        <v>-0.003986800629161606</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>-0.006153673345961508</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C462">
-        <v>267.4719911427215</v>
+        <v>0.001659283758122854</v>
       </c>
       <c r="D462">
-        <v>0.01781778978631181</v>
+        <v>0.00107500563629742</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.001659283758122854</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C463">
-        <v>267.914044122854</v>
+        <v>0.01930077417154941</v>
       </c>
       <c r="D463">
-        <v>0.01096028499983353</v>
+        <v>0.0125044561653469</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.01930077417154941</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C464">
-        <v>268.3560971029865</v>
+        <v>-0.009991140498119222</v>
       </c>
       <c r="D464">
-        <v>0.00512867319783376</v>
+        <v>-0.006472993118831184</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>-0.009991140498119222</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C465">
-        <v>268.798150083119</v>
+        <v>-0.02730083952144735</v>
       </c>
       <c r="D465">
-        <v>-0.006025225544556648</v>
+        <v>-0.01768748486660851</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>-0.02730083952144735</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C466">
-        <v>269.2402030632514</v>
+        <v>0.01199856104150054</v>
       </c>
       <c r="D466">
-        <v>0.00668544180831589</v>
+        <v>0.007773547281426907</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.01199856104150054</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C467">
-        <v>269.6822560433839</v>
+        <v>-0.005522347930319249</v>
       </c>
       <c r="D467">
-        <v>0.005049740813299375</v>
+        <v>-0.003577781751690625</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>-0.005522347930319249</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C468">
-        <v>270.1243090235164</v>
+        <v>0.00476679933464208</v>
       </c>
       <c r="D468">
-        <v>-0.001977657291682766</v>
+        <v>0.003088281993211448</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.00476679933464208</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C469">
-        <v>270.5663620036489</v>
+        <v>0.007998662490984465</v>
       </c>
       <c r="D469">
-        <v>-0.002976964307720588</v>
+        <v>0.005182119826434426</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.007998662490984465</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C470">
-        <v>271.0084149837813</v>
+        <v>-0.003003756951828862</v>
       </c>
       <c r="D470">
-        <v>0.006390166549349162</v>
+        <v>-0.001946053914814796</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>-0.003003756951828862</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C471">
-        <v>271.4504679639138</v>
+        <v>0.00718147152377302</v>
       </c>
       <c r="D471">
-        <v>0.01456403537988138</v>
+        <v>0.004652683621576088</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.00718147152377302</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C472">
-        <v>271.8925209440463</v>
+        <v>0.005367932587980739</v>
       </c>
       <c r="D472">
-        <v>0.02207105298210411</v>
+        <v>0.003477740174997024</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.005367932587980739</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C473">
-        <v>272.3345739241788</v>
+        <v>-0.007828801363554128</v>
       </c>
       <c r="D473">
-        <v>0.02606553433069497</v>
+        <v>-0.0050720713380541</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>-0.007828801363554128</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C474">
-        <v>272.7766269043112</v>
+        <v>0.001028694428220511</v>
       </c>
       <c r="D474">
-        <v>0.02450152298759148</v>
+        <v>0.0006664636491204202</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.001028694428220511</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C475">
-        <v>273.2186798844437</v>
+        <v>0.003887002110892546</v>
       </c>
       <c r="D475">
-        <v>0.03278221515836485</v>
+        <v>0.002518284866620189</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.003887002110892546</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C476">
-        <v>273.6607328645762</v>
+        <v>-0.007226320186266122</v>
       </c>
       <c r="D476">
-        <v>0.04157292449391131</v>
+        <v>-0.004681739872337578</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>-0.007226320186266122</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C477">
-        <v>274.1027858447086</v>
+        <v>-0.007908901031404625</v>
       </c>
       <c r="D477">
-        <v>0.04222696852082415</v>
+        <v>-0.005123965773820921</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>-0.007908901031404625</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C478">
-        <v>274.5448388248411</v>
+        <v>-0.01147179522079878</v>
       </c>
       <c r="D478">
-        <v>0.03151667816323486</v>
+        <v>-0.007432269773290586</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>-0.01147179522079878</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C479">
-        <v>274.9868918049736</v>
+        <v>0.001146752586408617</v>
       </c>
       <c r="D479">
-        <v>0.02920750154676537</v>
+        <v>0.0007429503771088161</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.001146752586408617</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C480">
-        <v>275.4289447851061</v>
+        <v>0.005460851110664855</v>
       </c>
       <c r="D480">
-        <v>0.03064389619925474</v>
+        <v>0.003537939604487527</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.005460851110664855</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C481">
-        <v>275.8709977652385</v>
+        <v>-0.01521827452665381</v>
       </c>
       <c r="D481">
-        <v>0.02998134230793905</v>
+        <v>-0.009859513667139158</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>-0.01521827452665381</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C482">
-        <v>276.313050745371</v>
+        <v>-0.01960847138837618</v>
       </c>
       <c r="D482">
-        <v>0.03896666182462778</v>
+        <v>-0.01270380497518279</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>-0.01960847138837618</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C483">
-        <v>276.7551037255035</v>
+        <v>0.007935124171440933</v>
       </c>
       <c r="D483">
-        <v>0.03900397312878226</v>
+        <v>0.005140955045970693</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.007935124171440933</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C484">
-        <v>277.197156705636</v>
+        <v>-0.01154796352010834</v>
       </c>
       <c r="D484">
-        <v>0.04486990601945223</v>
+        <v>-0.007481617180365554</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>-0.01154796352010834</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C485">
-        <v>277.6392096857684</v>
+        <v>-0.009820370885590179</v>
       </c>
       <c r="D485">
-        <v>0.04717439060649781</v>
+        <v>-0.006362356047216183</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>-0.009820370885590179</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C486">
-        <v>278.0812626659009</v>
+        <v>-0.01878304424053567</v>
       </c>
       <c r="D486">
-        <v>0.05496995924342953</v>
+        <v>-0.01216903276883919</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>-0.01878304424053567</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C487">
-        <v>278.5233156460334</v>
+        <v>0.0214046256586844</v>
       </c>
       <c r="D487">
-        <v>0.04817323201548256</v>
+        <v>0.01386748536124611</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.0214046256586844</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C488">
-        <v>278.9653686261659</v>
+        <v>-0.002754502695718308</v>
       </c>
       <c r="D488">
-        <v>0.0520012626295076</v>
+        <v>-0.001784568738528193</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>-0.002754502695718308</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C489">
-        <v>279.4074216062983</v>
+        <v>-0.01183406202174719</v>
       </c>
       <c r="D489">
-        <v>0.05189171036260349</v>
+        <v>-0.007666972759417297</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>-0.01183406202174719</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C490">
-        <v>279.8494745864308</v>
+        <v>-0.001682822152650587</v>
       </c>
       <c r="D490">
-        <v>0.05835708677862012</v>
+        <v>-0.001090255533527375</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>-0.001682822152650587</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C491">
-        <v>280.2915275665633</v>
+        <v>0.01577414654362563</v>
       </c>
       <c r="D491">
-        <v>0.06147373419264383</v>
+        <v>0.01021964830256809</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.01577414654362563</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C492">
-        <v>280.7335805466957</v>
+        <v>0.01376470626156312</v>
       </c>
       <c r="D492">
-        <v>0.06073658434840556</v>
+        <v>0.00891778560521724</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.01376470626156312</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C493">
-        <v>281.1756335268282</v>
+        <v>0.01264173604168928</v>
       </c>
       <c r="D493">
-        <v>0.06010658528543485</v>
+        <v>0.008190243188286553</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.01264173604168928</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C494">
-        <v>281.6176865069607</v>
+        <v>0.006726663171455094</v>
       </c>
       <c r="D494">
-        <v>0.05969222168065811</v>
+        <v>0.004358025435606721</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.006726663171455094</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C495">
-        <v>282.0597394870932</v>
+        <v>-0.002633778101155393</v>
       </c>
       <c r="D495">
-        <v>0.06010658528543485</v>
+        <v>-0.001706354497618805</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>-0.002633778101155393</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C496">
-        <v>282.7412871061408</v>
+        <v>0.0126873216479888</v>
       </c>
       <c r="D496">
-        <v>0.06732042879919525</v>
+        <v>0.008851634998528245</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.0126873216479888</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C497">
-        <v>283.4228347251884</v>
+        <v>0.01346874808940512</v>
       </c>
       <c r="D497">
-        <v>0.06969979269128576</v>
+        <v>0.009396817175628056</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.01346874808940512</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C498">
-        <v>284.1043823442359</v>
+        <v>0.001002098226845938</v>
       </c>
       <c r="D498">
-        <v>0.07623812678191813</v>
+        <v>0.0006991395018442452</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.001002098226845938</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C499">
-        <v>284.7859299632835</v>
+        <v>-0.01640984786147381</v>
       </c>
       <c r="D499">
-        <v>0.08103856201866902</v>
+        <v>-0.01144875078296539</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>-0.01640984786147381</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C500">
-        <v>285.4674775823311</v>
+        <v>-0.003538021444459361</v>
       </c>
       <c r="D500">
-        <v>0.0778395930262764</v>
+        <v>-0.002468391305290534</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>-0.003538021444459361</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C501">
-        <v>286.1490252013787</v>
+        <v>0.002200782325166628</v>
       </c>
       <c r="D501">
-        <v>0.08636716867913496</v>
+        <v>0.001535432173478108</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.002200782325166628</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C502">
-        <v>286.5910781815112</v>
+        <v>-0.00111573355108785</v>
       </c>
       <c r="D502">
-        <v>0.08048417619499965</v>
+        <v>-0.000722853972476942</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>-0.00111573355108785</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C503">
-        <v>287.0331311616437</v>
+        <v>0.01513118039667116</v>
       </c>
       <c r="D503">
-        <v>0.07636338508692977</v>
+        <v>0.009803087706141574</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7416,10 +7416,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.01513118039667116</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C504">
-        <v>287.4751841417761</v>
+        <v>6.283183062638642e-05</v>
+      </c>
+      <c r="D504">
+        <v>4.070706516085193e-05</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7427,10 +7430,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>6.283183062638642e-05</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C505">
-        <v>287.9172371219086</v>
+        <v>0.009878167225844336</v>
+      </c>
+      <c r="D505">
+        <v>0.006399800752635871</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7438,10 +7444,13 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.009878167225844336</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C506">
-        <v>288.3592901020411</v>
+        <v>0.003880726995091344</v>
+      </c>
+      <c r="D506">
+        <v>0.002514219386667356</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -7449,10 +7458,13 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.003880726995091344</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C507">
-        <v>289.2887506829539</v>
+        <v>0.01063331588916228</v>
+      </c>
+      <c r="D507">
+        <v>0.007924683385558346</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -7460,10 +7472,13 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.01063331588916228</v>
+        <v>0.9294605809128631</v>
       </c>
       <c r="C508">
-        <v>290.2182112638668</v>
+        <v>-0.009270875672217294</v>
+      </c>
+      <c r="D508">
+        <v>-0.006909298583340171</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -7471,10 +7486,13 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>-0.009270875672217294</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C509">
-        <v>290.6602642439993</v>
+        <v>0.00644636194374737</v>
+      </c>
+      <c r="D509">
+        <v>0.004176425755520791</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -7482,10 +7500,13 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>0.00644636194374737</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C510">
-        <v>291.1023172241318</v>
+        <v>-0.0001844848266454591</v>
+      </c>
+      <c r="D510">
+        <v>-0.0001195227925810488</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -7493,10 +7514,13 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>-0.0001844848266454591</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C511">
-        <v>291.5443702042642</v>
+        <v>0.01088762360664308</v>
+      </c>
+      <c r="D511">
+        <v>0.007053800584577032</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -7504,161 +7528,181 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.01088762360664308</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C512">
-        <v>291.9864231843967</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>0.005248400367602102</v>
+      </c>
+      <c r="D512">
+        <v>0.003400298441479696</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.005248400367602102</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C513">
-        <v>292.4284761645292</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>-0.001241352324959699</v>
+      </c>
+      <c r="D513">
+        <v>-0.0008042390214632474</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514">
-        <v>-0.001241352324959699</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C514">
-        <v>292.8705291446616</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>-0.001060911574022327</v>
+      </c>
+      <c r="D514">
+        <v>-0.000687336277537846</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>-0.001060911574022327</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C515">
-        <v>293.3125821247941</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>-0.0006977838063573216</v>
+      </c>
+      <c r="D515">
+        <v>-0.0004520754940672717</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>-0.0006977838063573216</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C516">
-        <v>293.7546351049266</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>0.0006977838063573216</v>
+      </c>
+      <c r="D516">
+        <v>0.0004520754940672717</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>0.0006977838063573216</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C517">
-        <v>294.1966880850591</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>0.01214803406348874</v>
+      </c>
+      <c r="D517">
+        <v>0.007870386860748473</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.01214803406348874</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C518">
-        <v>294.6387410651915</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>0.00400682293085719</v>
+      </c>
+      <c r="D518">
+        <v>0.002595913576102341</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.00400682293085719</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C519">
-        <v>295.080794045324</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.0110104835376541</v>
+      </c>
+      <c r="D519">
+        <v>0.007133398252947737</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.0110104835376541</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C520">
-        <v>295.5228470254565</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.00808388075848665</v>
+      </c>
+      <c r="D520">
+        <v>0.005237330466225168</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.00808388075848665</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C521">
-        <v>296.2043946445041</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>-0.004901323187894491</v>
+      </c>
+      <c r="D521">
+        <v>-0.00341953369456368</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>-0.004901323187894491</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C522">
-        <v>296.8859422635517</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>0.01306558593824292</v>
+      </c>
+      <c r="D522">
+        <v>0.009115540771803691</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>0.01306558593824292</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="C523">
-        <v>297.5674898825993</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>-0.009013668949362064</v>
+      </c>
+      <c r="D523">
+        <v>-0.006288617073877702</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1">
         <v>522</v>
       </c>
       <c r="B524">
-        <v>-0.009013668949362064</v>
+        <v>0.4420529801324503</v>
       </c>
       <c r="C524">
-        <v>298.0095428627317</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
         <v>-0.006939367433444588</v>
       </c>
-      <c r="C525">
-        <v>298.6910904817793</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="C526">
-        <v>299.1331434619118</v>
+      <c r="D524">
+        <v>-0.004495830846757054</v>
       </c>
     </row>
   </sheetData>
